--- a/lab5/Информатика_ЛР5_P3115_Зенченков_Павел_Геннадьевич.xlsx
+++ b/lab5/Информатика_ЛР5_P3115_Зенченков_Павел_Геннадьевич.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niuitmo-my.sharepoint.com/personal/465967_niuitmo_ru/Documents/инфа лабы/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nafine/Desktop/itmo/inf/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{88387938-F367-5843-A78B-64790600D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47799D83-BDDE-A449-9CDD-D593892333D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486E8A72-366E-8A4A-A2CF-E174665022C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E3C98339-DF1E-FA4B-816F-8019EBB63017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>A</t>
   </si>
@@ -254,22 +254,19 @@
     <t>SF</t>
   </si>
   <si>
-    <t>При сложенни двух отрицательных слагаемых получено отрицательное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</t>
-  </si>
-  <si>
-    <t>При сложении двух положительных слагаемых получено отрицательное число, так как результат сложения оказался вне ОДЗ. Результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</t>
-  </si>
-  <si>
-    <t>При сложении двух положительных слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</t>
-  </si>
-  <si>
-    <t>При сложении положительного и отрицательного слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</t>
-  </si>
-  <si>
-    <t>При сложенни двух отрицательных слагаемых получено положительное число, так как результат сложения оказался вне ОДЗ. Результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</t>
-  </si>
-  <si>
     <t>Исходные числа</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</t>
+  </si>
+  <si>
+    <t>При сложении двух слагаемых получено положительное число. Сумма оказалась вне ОДЗ, результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</t>
+  </si>
+  <si>
+    <t>При сложении двух слагаемых получено отрицательное число. Сумма оказалась вне ОДЗ, результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</t>
   </si>
 </sst>
 </file>
@@ -354,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -443,24 +440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="slantDashDot">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -498,8 +477,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="slantDashDot">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -509,32 +505,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="slantDashDot">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -553,8 +540,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -564,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -584,9 +571,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,7 +616,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,122 +633,133 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -907,16 +902,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
       </font>
@@ -939,10 +924,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C2770-3334-D445-A1E9-CD2D2ADE898F}">
-  <dimension ref="A1:BD37"/>
+  <dimension ref="A1:BG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,468 +1262,478 @@
     <col min="46" max="46" width="5.83203125" style="1" customWidth="1"/>
     <col min="47" max="47" width="10.83203125" style="1"/>
     <col min="48" max="49" width="5.83203125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="10.83203125" style="1"/>
+    <col min="50" max="58" width="10.83203125" style="1"/>
+    <col min="59" max="59" width="62" style="14" customWidth="1"/>
+    <col min="60" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="E1" s="77" t="s">
+    <row r="1" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="E1" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-      <c r="I1" s="72" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
+      <c r="I1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
       <c r="Z1" s="19"/>
-      <c r="AB1" s="72" t="s">
+      <c r="AB1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
       <c r="AT1" s="18"/>
       <c r="AW1" s="7"/>
+      <c r="BG1" s="81" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <v>205</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <f>C2</f>
         <v>205</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="63">
+      <c r="J2" s="39"/>
+      <c r="K2" s="57">
         <f t="shared" ref="K2:Z13" si="0">MOD(INT($G2/2^K$14),2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R2" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S2" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T2" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U2" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V2" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W2" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X2" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y2" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="66">
+      <c r="L2" s="57">
+        <f>MOD(INT($G2/2^L$14),2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T2" s="57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U2" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X2" s="57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB2" s="8"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="49">
+      <c r="AD2" s="48">
         <v>15</v>
       </c>
-      <c r="AE2" s="50">
+      <c r="AE2" s="49">
         <v>14</v>
       </c>
-      <c r="AF2" s="50">
+      <c r="AF2" s="49">
         <v>13</v>
       </c>
-      <c r="AG2" s="50">
+      <c r="AG2" s="49">
         <v>12</v>
       </c>
-      <c r="AH2" s="50">
+      <c r="AH2" s="49">
         <v>11</v>
       </c>
-      <c r="AI2" s="50">
+      <c r="AI2" s="49">
         <v>10</v>
       </c>
-      <c r="AJ2" s="50">
+      <c r="AJ2" s="49">
         <v>9</v>
       </c>
-      <c r="AK2" s="50">
+      <c r="AK2" s="49">
         <v>8</v>
       </c>
-      <c r="AL2" s="50">
+      <c r="AL2" s="49">
         <v>7</v>
       </c>
-      <c r="AM2" s="50">
+      <c r="AM2" s="49">
         <v>6</v>
       </c>
-      <c r="AN2" s="50">
+      <c r="AN2" s="49">
         <v>5</v>
       </c>
-      <c r="AO2" s="50">
+      <c r="AO2" s="49">
         <v>4</v>
       </c>
-      <c r="AP2" s="50">
+      <c r="AP2" s="49">
         <v>3</v>
       </c>
-      <c r="AQ2" s="50">
+      <c r="AQ2" s="49">
         <v>2</v>
       </c>
-      <c r="AR2" s="50">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="52">
+      <c r="AR2" s="49">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="51">
         <v>0</v>
       </c>
       <c r="AW2" s="7"/>
+      <c r="BG2" s="83" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>19212</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <f>C3</f>
         <v>19212</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P3" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R3" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S3" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X3" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y3" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="74" t="s">
+      <c r="K3" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="78">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R3" s="60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X3" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AC3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="41">
+      <c r="AD3" s="40">
         <f>K2</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="41">
+      <c r="AE3" s="40">
         <f t="shared" ref="AE3:AR3" si="1">L2</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="41">
+      <c r="AF3" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG3" s="43">
+      <c r="AG3" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH3" s="41">
+      <c r="AH3" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="41">
+      <c r="AI3" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ3" s="41">
+      <c r="AJ3" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK3" s="43">
+      <c r="AK3" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL3" s="41">
+      <c r="AL3" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AM3" s="41">
+      <c r="AM3" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AN3" s="41">
+      <c r="AN3" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO3" s="43">
+      <c r="AO3" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP3" s="41">
+      <c r="AP3" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AQ3" s="41">
+      <c r="AQ3" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AR3" s="41">
+      <c r="AR3" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS3" s="41">
+      <c r="AS3" s="40">
         <f>Z2</f>
         <v>1</v>
       </c>
       <c r="AT3" s="18"/>
       <c r="AU3" s="18"/>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AW3" s="51" t="s">
+      <c r="AW3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AX3" s="53">
+      <c r="AX3" s="52">
         <f>G2</f>
         <v>205</v>
       </c>
-      <c r="AY3" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="82"/>
+      <c r="AY3" s="61" t="str">
+        <f>IF(AM6=1,IF(AX5&gt;0,$BG$13,$BG$7),$BG$2)</f>
+        <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
+      </c>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="63"/>
+      <c r="BG3" s="84"/>
     </row>
-    <row r="4" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <f>C2+C3</f>
         <v>19417</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="36" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R4" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W4" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="70">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="46" t="s">
+      <c r="K4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="78">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="78">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W4" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="45" t="s">
         <v>35</v>
       </c>
       <c r="AD4">
@@ -1757,7 +1748,7 @@
         <f t="shared" ref="AF4" si="3">M3</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="44">
+      <c r="AG4" s="43">
         <f t="shared" ref="AG4" si="4">N3</f>
         <v>0</v>
       </c>
@@ -1773,7 +1764,7 @@
         <f t="shared" ref="AJ4" si="7">Q3</f>
         <v>1</v>
       </c>
-      <c r="AK4" s="44">
+      <c r="AK4" s="43">
         <f t="shared" ref="AK4" si="8">R3</f>
         <v>1</v>
       </c>
@@ -1789,7 +1780,7 @@
         <f t="shared" ref="AN4" si="11">U3</f>
         <v>0</v>
       </c>
-      <c r="AO4" s="44">
+      <c r="AO4" s="43">
         <f t="shared" ref="AO4" si="12">V3</f>
         <v>0</v>
       </c>
@@ -1809,166 +1800,167 @@
         <f>Z3</f>
         <v>0</v>
       </c>
-      <c r="AV4" s="76"/>
+      <c r="AV4" s="72"/>
       <c r="AW4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AX4" s="47">
+      <c r="AX4" s="46">
         <f>G3</f>
         <v>19212</v>
       </c>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="84"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="66"/>
+      <c r="BG4" s="84"/>
     </row>
-    <row r="5" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="18"/>
       <c r="C5" s="16"/>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <f>C2+C3+C3</f>
         <v>38629</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L5" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="70">
+      <c r="K5" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="78">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB5" s="8"/>
       <c r="AC5" s="9"/>
-      <c r="AD5" s="42">
+      <c r="AD5" s="41">
         <f t="shared" ref="AD5:AQ5" si="16">MOD(AD3+AD4 + IF(OR(AE3+AE4=2,  AND(AE3+AE4=1, AE5=0)), 1, 0), 2)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="42">
+      <c r="AE5" s="41">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="45">
+      <c r="AG5" s="44">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="48">
+      <c r="AH5" s="47">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AI5" s="42">
+      <c r="AI5" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AJ5" s="42">
+      <c r="AJ5" s="41">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AK5" s="44">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AL5" s="48">
+      <c r="AL5" s="47">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AM5" s="42">
+      <c r="AM5" s="41">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AN5" s="42">
+      <c r="AN5" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="45">
+      <c r="AO5" s="44">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AP5" s="42">
+      <c r="AP5" s="41">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AQ5" s="42">
+      <c r="AQ5" s="41">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AR5" s="42">
+      <c r="AR5" s="41">
         <f>MOD(AR3+AR4 + IF(OR(AS3+AS4=2,  AND(AS3+AS4=1, AS5=0)), 1, 0), 2)</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="42">
+      <c r="AS5" s="41">
         <f>MOD(AS4+AS3,2)</f>
         <v>1</v>
       </c>
@@ -1983,102 +1975,103 @@
       <c r="AW5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AX5" s="23">
+      <c r="AX5" s="22">
         <f>AX3+AX4</f>
         <v>19417</v>
       </c>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="71"/>
-      <c r="BA5" s="71"/>
-      <c r="BB5" s="71"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="84"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="65"/>
+      <c r="BD5" s="66"/>
+      <c r="BG5" s="84"/>
     </row>
-    <row r="6" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="6" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87">
         <v>-32768</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>32767</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <f>C3-C2</f>
         <v>19007</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>43</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="57">
+      <c r="K6" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="79">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2127,109 +2120,110 @@
       </c>
       <c r="AW6" s="7"/>
       <c r="AX6" s="3"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="84"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="66"/>
+      <c r="BG6" s="84"/>
     </row>
-    <row r="7" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <f>65536-G5</f>
         <v>26907</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="36" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P7" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W7" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z7" s="57">
+      <c r="K7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="79">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
@@ -2239,268 +2233,273 @@
       <c r="AV7" s="9"/>
       <c r="AW7" s="17"/>
       <c r="AX7" s="10"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="86"/>
-      <c r="BA7" s="86"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="86"/>
-      <c r="BD7" s="87"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="69"/>
+      <c r="BG7" s="84" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="E8" s="26" t="s">
+    <row r="8" spans="1:59" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <f t="shared" ref="G8:G13" si="17">-G2</f>
         <v>-205</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z8" s="57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="74" t="s">
+      <c r="K8" s="53">
+        <f t="shared" ref="K8:W9" si="18">MOD(IF(K2=1,0,1)+IF(AND(L8=0,L2=0),1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="53">
+        <f>MOD(IF(X2=1,0,1)+IF(AND(Y8=0,Y2=0),1,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="53">
+        <f>MOD(IF(Y2=1,0,1)+IF(Z2=0,1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="54">
+        <f>Z2</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AC8" s="46" t="s">
+      <c r="AC8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AD8" s="40">
         <f>K3</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="41">
+      <c r="AE8" s="40">
         <f>L3</f>
         <v>1</v>
       </c>
-      <c r="AF8" s="41">
-        <f t="shared" ref="AF8:AR8" si="18">M3</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="43">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="41">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="41">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AK8" s="43">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AL8" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="43">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP8" s="41">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="41">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AR8" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS8" s="41">
+      <c r="AF8" s="40">
+        <f t="shared" ref="AF8:AR8" si="19">M3</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="40">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="40">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AK8" s="42">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="40">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="40">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AR8" s="40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="40">
         <f>Z3</f>
         <v>0</v>
       </c>
       <c r="AT8" s="18"/>
       <c r="AU8" s="18"/>
-      <c r="AV8" s="75" t="s">
+      <c r="AV8" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AW8" s="51" t="s">
+      <c r="AW8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AX8" s="53">
+      <c r="AX8" s="52">
         <f>G3</f>
         <v>19212</v>
       </c>
-      <c r="AY8" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ8" s="81"/>
-      <c r="BA8" s="81"/>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81"/>
-      <c r="BD8" s="82"/>
+      <c r="AY8" s="61" t="str">
+        <f>IF(AM11=1,IF(AX10&gt;0,$BG$13,$BG$7),$BG$2)</f>
+        <v>При сложении двух слагаемых получено положительное число. Сумма оказалась вне ОДЗ, результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</v>
+      </c>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="63"/>
+      <c r="BG8" s="84"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="E9" s="26" t="s">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <f t="shared" si="17"/>
         <v>-19212</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W9" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y9" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="46" t="s">
+      <c r="K9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="54">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="53">
+        <f>MOD(IF(X3=1,0,1)+IF(AND(Y9=0,Y3=0),1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="53">
+        <f t="shared" ref="Y9:Y13" si="20">MOD(IF(Y3=1,0,1)+IF(Z3=0,1,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="54">
+        <f t="shared" ref="Z9:Z13" si="21">Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="45" t="s">
         <v>36</v>
       </c>
       <c r="AD9">
@@ -2512,220 +2511,221 @@
         <v>1</v>
       </c>
       <c r="AF9">
-        <f t="shared" ref="AF9:AS9" si="19">M4</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AF9:AS9" si="22">M4</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="43">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AK9" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK9" s="43">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="43">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AV9" s="76"/>
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AV9" s="72"/>
       <c r="AW9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AX9" s="47">
+      <c r="AX9" s="46">
         <f>G4</f>
         <v>19417</v>
       </c>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="71"/>
-      <c r="BA9" s="71"/>
-      <c r="BB9" s="71"/>
-      <c r="BC9" s="71"/>
-      <c r="BD9" s="84"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="65"/>
+      <c r="BC9" s="65"/>
+      <c r="BD9" s="66"/>
+      <c r="BG9" s="84"/>
     </row>
-    <row r="10" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="26" t="s">
+    <row r="10" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <f t="shared" si="17"/>
         <v>-19417</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z10" s="57">
-        <f t="shared" si="0"/>
+      <c r="K10" s="53">
+        <f t="shared" ref="K8:W13" si="23">MOD(IF(K4=1,0,1)+IF(L10=L4,1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="54">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="53">
+        <f>MOD(IF(P4=1,0,1)+IF(Q10=Q4,1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="54">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="54">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="53">
+        <f t="shared" ref="X9:X13" si="24">MOD(IF(X4=1,0,1)+IF(Y10=Y4,1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="53">
+        <f>MOD(IF(Y4=1,0,1)+IF(Z4=0,1,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="54">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="42">
+      <c r="AD10" s="41">
         <f>MOD(AD8+AD9 + IF(OR(AE8+AE9=2,  AND(AE8+AE9=1, AE10=0)), 1, 0), 2)</f>
         <v>1</v>
       </c>
-      <c r="AE10" s="42">
-        <f t="shared" ref="AE10" si="20">MOD(AE8+AE9 + IF(OR(AF8+AF9=2,  AND(AF8+AF9=1, AF10=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="42">
-        <f t="shared" ref="AF10" si="21">MOD(AF8+AF9 + IF(OR(AG8+AG9=2,  AND(AG8+AG9=1, AG10=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="45">
-        <f t="shared" ref="AG10" si="22">MOD(AG8+AG9 + IF(OR(AH8+AH9=2,  AND(AH8+AH9=1, AH10=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AH10" s="42">
-        <f t="shared" ref="AH10" si="23">MOD(AH8+AH9 + IF(OR(AI8+AI9=2,  AND(AI8+AI9=1, AI10=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="42">
-        <f t="shared" ref="AI10" si="24">MOD(AI8+AI9 + IF(OR(AJ8+AJ9=2,  AND(AJ8+AJ9=1, AJ10=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="42">
-        <f t="shared" ref="AJ10" si="25">MOD(AJ8+AJ9 + IF(OR(AK8+AK9=2,  AND(AK8+AK9=1, AK10=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AK10" s="45">
-        <f t="shared" ref="AK10" si="26">MOD(AK8+AK9 + IF(OR(AL8+AL9=2,  AND(AL8+AL9=1, AL10=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="42">
-        <f t="shared" ref="AL10" si="27">MOD(AL8+AL9 + IF(OR(AM8+AM9=2,  AND(AM8+AM9=1, AM10=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AM10" s="42">
-        <f t="shared" ref="AM10" si="28">MOD(AM8+AM9 + IF(OR(AN8+AN9=2,  AND(AN8+AN9=1, AN10=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AN10" s="42">
-        <f t="shared" ref="AN10" si="29">MOD(AN8+AN9 + IF(OR(AO8+AO9=2,  AND(AO8+AO9=1, AO10=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AO10" s="45">
-        <f t="shared" ref="AO10" si="30">MOD(AO8+AO9 + IF(OR(AP8+AP9=2,  AND(AP8+AP9=1, AP10=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AP10" s="42">
-        <f t="shared" ref="AP10" si="31">MOD(AP8+AP9 + IF(OR(AQ8+AQ9=2,  AND(AQ8+AQ9=1, AQ10=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="42">
-        <f t="shared" ref="AQ10" si="32">MOD(AQ8+AQ9 + IF(OR(AR8+AR9=2,  AND(AR8+AR9=1, AR10=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AR10" s="42">
+      <c r="AE10" s="41">
+        <f t="shared" ref="AE10" si="25">MOD(AE8+AE9 + IF(OR(AF8+AF9=2,  AND(AF8+AF9=1, AF10=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="41">
+        <f t="shared" ref="AF10" si="26">MOD(AF8+AF9 + IF(OR(AG8+AG9=2,  AND(AG8+AG9=1, AG10=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="44">
+        <f t="shared" ref="AG10" si="27">MOD(AG8+AG9 + IF(OR(AH8+AH9=2,  AND(AH8+AH9=1, AH10=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="41">
+        <f t="shared" ref="AH10" si="28">MOD(AH8+AH9 + IF(OR(AI8+AI9=2,  AND(AI8+AI9=1, AI10=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="41">
+        <f t="shared" ref="AI10" si="29">MOD(AI8+AI9 + IF(OR(AJ8+AJ9=2,  AND(AJ8+AJ9=1, AJ10=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="41">
+        <f t="shared" ref="AJ10" si="30">MOD(AJ8+AJ9 + IF(OR(AK8+AK9=2,  AND(AK8+AK9=1, AK10=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AK10" s="44">
+        <f t="shared" ref="AK10" si="31">MOD(AK8+AK9 + IF(OR(AL8+AL9=2,  AND(AL8+AL9=1, AL10=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="41">
+        <f t="shared" ref="AL10" si="32">MOD(AL8+AL9 + IF(OR(AM8+AM9=2,  AND(AM8+AM9=1, AM10=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="41">
+        <f t="shared" ref="AM10" si="33">MOD(AM8+AM9 + IF(OR(AN8+AN9=2,  AND(AN8+AN9=1, AN10=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AN10" s="41">
+        <f t="shared" ref="AN10" si="34">MOD(AN8+AN9 + IF(OR(AO8+AO9=2,  AND(AO8+AO9=1, AO10=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AO10" s="44">
+        <f t="shared" ref="AO10" si="35">MOD(AO8+AO9 + IF(OR(AP8+AP9=2,  AND(AP8+AP9=1, AP10=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="41">
+        <f t="shared" ref="AP10" si="36">MOD(AP8+AP9 + IF(OR(AQ8+AQ9=2,  AND(AQ8+AQ9=1, AQ10=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="41">
+        <f t="shared" ref="AQ10" si="37">MOD(AQ8+AQ9 + IF(OR(AR8+AR9=2,  AND(AR8+AR9=1, AR10=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AR10" s="41">
         <f>MOD(AR8+AR9 + IF(OR(AS8+AS9=2,  AND(AS8+AS9=1, AS10=0)), 1, 0), 2)</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="42">
+      <c r="AS10" s="41">
         <f>MOD(AS9+AS8,2)</f>
         <v>1</v>
       </c>
@@ -2740,96 +2740,97 @@
       <c r="AW10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AX10" s="23">
+      <c r="AX10" s="22">
         <f>AX8+AX9</f>
         <v>38629</v>
       </c>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="84"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="66"/>
+      <c r="BG10" s="84"/>
     </row>
-    <row r="11" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="26" t="s">
+    <row r="11" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <f t="shared" si="17"/>
         <v>-38629</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S11" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z11" s="57">
-        <f t="shared" si="0"/>
+      <c r="K11" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="54">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="54">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="54">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="54">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AB11" s="2"/>
@@ -2877,108 +2878,109 @@
       </c>
       <c r="AW11" s="7"/>
       <c r="AX11" s="3"/>
-      <c r="AY11" s="83"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="84"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="66"/>
+      <c r="BG11" s="84"/>
     </row>
-    <row r="12" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="26" t="s">
+    <row r="12" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <f t="shared" si="17"/>
         <v>-19007</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="36" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="57">
-        <f t="shared" si="0"/>
+      <c r="K12" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="54">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="54">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="54">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="54">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AB12" s="8"/>
       <c r="AC12" s="9"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
@@ -2988,239 +2990,244 @@
       <c r="AV12" s="9"/>
       <c r="AW12" s="17"/>
       <c r="AX12" s="10"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="86"/>
-      <c r="BA12" s="86"/>
-      <c r="BB12" s="86"/>
-      <c r="BC12" s="86"/>
-      <c r="BD12" s="87"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="69"/>
+      <c r="BG12" s="84"/>
     </row>
-    <row r="13" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="28" t="s">
+    <row r="13" spans="1:59" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <f t="shared" si="17"/>
         <v>-26907</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="36" t="s">
         <v>50</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="74" t="s">
+      <c r="K13" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="80">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="80">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="80">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="53">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="54">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AC13" s="46" t="s">
+      <c r="AC13" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AD13" s="41">
+      <c r="AD13" s="40">
         <f>K3</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="41">
+      <c r="AE13" s="40">
         <f>L3</f>
         <v>1</v>
       </c>
-      <c r="AF13" s="41">
-        <f t="shared" ref="AF13:AS13" si="33">M3</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="43">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="41">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AI13" s="41">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="41">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AK13" s="43">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AL13" s="41">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="41">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="41">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="43">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AP13" s="41">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="41">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AR13" s="41">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS13" s="41">
-        <f t="shared" si="33"/>
+      <c r="AF13" s="40">
+        <f t="shared" ref="AF13:AS13" si="38">M3</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="42">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="40">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AI13" s="40">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="40">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AK13" s="42">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="40">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="40">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="40">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="42">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="40">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="40">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AR13" s="40">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="40">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AT13" s="18"/>
       <c r="AU13" s="18"/>
-      <c r="AV13" s="75" t="s">
+      <c r="AV13" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AW13" s="51" t="s">
+      <c r="AW13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AX13" s="53">
+      <c r="AX13" s="52">
         <f>G3</f>
         <v>19212</v>
       </c>
-      <c r="AY13" s="80" t="s">
+      <c r="AY13" s="61" t="str">
+        <f>IF(AM16=1,IF(AX15&gt;0,$BG$13,$BG$7),$BG$2)</f>
+        <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
+      </c>
+      <c r="AZ13" s="62"/>
+      <c r="BA13" s="62"/>
+      <c r="BB13" s="62"/>
+      <c r="BC13" s="62"/>
+      <c r="BD13" s="63"/>
+      <c r="BG13" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="AZ13" s="81"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="81"/>
-      <c r="BC13" s="81"/>
-      <c r="BD13" s="82"/>
     </row>
-    <row r="14" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F14" s="11"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="61">
+      <c r="J14" s="37"/>
+      <c r="K14" s="55">
         <v>15</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="55">
         <v>14</v>
       </c>
-      <c r="M14" s="61">
+      <c r="M14" s="55">
         <v>13</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="55">
         <v>12</v>
       </c>
-      <c r="O14" s="61">
+      <c r="O14" s="55">
         <v>11</v>
       </c>
-      <c r="P14" s="61">
+      <c r="P14" s="55">
         <v>10</v>
       </c>
-      <c r="Q14" s="61">
+      <c r="Q14" s="55">
         <v>9</v>
       </c>
-      <c r="R14" s="61">
+      <c r="R14" s="55">
         <v>8</v>
       </c>
-      <c r="S14" s="61">
+      <c r="S14" s="55">
         <v>7</v>
       </c>
-      <c r="T14" s="61">
+      <c r="T14" s="55">
         <v>6</v>
       </c>
-      <c r="U14" s="61">
+      <c r="U14" s="55">
         <v>5</v>
       </c>
-      <c r="V14" s="61">
+      <c r="V14" s="55">
         <v>4</v>
       </c>
-      <c r="W14" s="61">
+      <c r="W14" s="55">
         <v>3</v>
       </c>
-      <c r="X14" s="61">
+      <c r="X14" s="55">
         <v>2</v>
       </c>
-      <c r="Y14" s="61">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="46" t="s">
+      <c r="Y14" s="55">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="45" t="s">
         <v>37</v>
       </c>
       <c r="AD14">
@@ -3232,148 +3239,149 @@
         <v>1</v>
       </c>
       <c r="AF14">
-        <f t="shared" ref="AF14:AS14" si="34">M8</f>
-        <v>1</v>
-      </c>
-      <c r="AG14" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AF14:AS14" si="39">M8</f>
+        <v>1</v>
+      </c>
+      <c r="AG14" s="43">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AK14" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AK14" s="43">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AO14" s="44">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AO14" s="43">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AV14" s="76"/>
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AV14" s="72"/>
       <c r="AW14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AX14" s="47">
+      <c r="AX14" s="46">
         <f>G8</f>
         <v>-205</v>
       </c>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="71"/>
-      <c r="BA14" s="71"/>
-      <c r="BB14" s="71"/>
-      <c r="BC14" s="71"/>
-      <c r="BD14" s="84"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="65"/>
+      <c r="BA14" s="65"/>
+      <c r="BB14" s="65"/>
+      <c r="BC14" s="65"/>
+      <c r="BD14" s="66"/>
+      <c r="BG14" s="85"/>
     </row>
-    <row r="15" spans="1:56" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:59" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
-      <c r="AD15" s="42">
-        <f t="shared" ref="AD15" si="35">MOD(AD13+AD14 + IF(OR(AE13+AE14=2,  AND(AE13+AE14=1, AE15=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="42">
-        <f t="shared" ref="AE15" si="36">MOD(AE13+AE14 + IF(OR(AF13+AF14=2,  AND(AF13+AF14=1, AF15=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AF15" s="42">
-        <f t="shared" ref="AF15" si="37">MOD(AF13+AF14 + IF(OR(AG13+AG14=2,  AND(AG13+AG14=1, AG15=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="45">
-        <f t="shared" ref="AG15" si="38">MOD(AG13+AG14 + IF(OR(AH13+AH14=2,  AND(AH13+AH14=1, AH15=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="42">
-        <f t="shared" ref="AH15" si="39">MOD(AH13+AH14 + IF(OR(AI13+AI14=2,  AND(AI13+AI14=1, AI15=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AI15" s="42">
-        <f t="shared" ref="AI15" si="40">MOD(AI13+AI14 + IF(OR(AJ13+AJ14=2,  AND(AJ13+AJ14=1, AJ15=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="42">
-        <f t="shared" ref="AJ15" si="41">MOD(AJ13+AJ14 + IF(OR(AK13+AK14=2,  AND(AK13+AK14=1, AK15=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AK15" s="45">
-        <f t="shared" ref="AK15" si="42">MOD(AK13+AK14 + IF(OR(AL13+AL14=2,  AND(AL13+AL14=1, AL15=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="42">
-        <f t="shared" ref="AL15" si="43">MOD(AL13+AL14 + IF(OR(AM13+AM14=2,  AND(AM13+AM14=1, AM15=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="42">
-        <f t="shared" ref="AM15" si="44">MOD(AM13+AM14 + IF(OR(AN13+AN14=2,  AND(AN13+AN14=1, AN15=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="42">
-        <f t="shared" ref="AN15" si="45">MOD(AN13+AN14 + IF(OR(AO13+AO14=2,  AND(AO13+AO14=1, AO15=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AO15" s="45">
-        <f t="shared" ref="AO15" si="46">MOD(AO13+AO14 + IF(OR(AP13+AP14=2,  AND(AP13+AP14=1, AP15=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AP15" s="42">
-        <f t="shared" ref="AP15" si="47">MOD(AP13+AP14 + IF(OR(AQ13+AQ14=2,  AND(AQ13+AQ14=1, AQ15=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="42">
-        <f t="shared" ref="AQ15" si="48">MOD(AQ13+AQ14 + IF(OR(AR13+AR14=2,  AND(AR13+AR14=1, AR15=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AR15" s="42">
+      <c r="AD15" s="41">
+        <f t="shared" ref="AD15" si="40">MOD(AD13+AD14 + IF(OR(AE13+AE14=2,  AND(AE13+AE14=1, AE15=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="41">
+        <f t="shared" ref="AE15" si="41">MOD(AE13+AE14 + IF(OR(AF13+AF14=2,  AND(AF13+AF14=1, AF15=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="41">
+        <f t="shared" ref="AF15" si="42">MOD(AF13+AF14 + IF(OR(AG13+AG14=2,  AND(AG13+AG14=1, AG15=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="44">
+        <f t="shared" ref="AG15" si="43">MOD(AG13+AG14 + IF(OR(AH13+AH14=2,  AND(AH13+AH14=1, AH15=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="41">
+        <f t="shared" ref="AH15" si="44">MOD(AH13+AH14 + IF(OR(AI13+AI14=2,  AND(AI13+AI14=1, AI15=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AI15" s="41">
+        <f t="shared" ref="AI15" si="45">MOD(AI13+AI14 + IF(OR(AJ13+AJ14=2,  AND(AJ13+AJ14=1, AJ15=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="41">
+        <f t="shared" ref="AJ15" si="46">MOD(AJ13+AJ14 + IF(OR(AK13+AK14=2,  AND(AK13+AK14=1, AK15=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AK15" s="44">
+        <f t="shared" ref="AK15" si="47">MOD(AK13+AK14 + IF(OR(AL13+AL14=2,  AND(AL13+AL14=1, AL15=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="41">
+        <f t="shared" ref="AL15" si="48">MOD(AL13+AL14 + IF(OR(AM13+AM14=2,  AND(AM13+AM14=1, AM15=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="41">
+        <f t="shared" ref="AM15" si="49">MOD(AM13+AM14 + IF(OR(AN13+AN14=2,  AND(AN13+AN14=1, AN15=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="41">
+        <f t="shared" ref="AN15" si="50">MOD(AN13+AN14 + IF(OR(AO13+AO14=2,  AND(AO13+AO14=1, AO15=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="44">
+        <f t="shared" ref="AO15" si="51">MOD(AO13+AO14 + IF(OR(AP13+AP14=2,  AND(AP13+AP14=1, AP15=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AP15" s="41">
+        <f t="shared" ref="AP15" si="52">MOD(AP13+AP14 + IF(OR(AQ13+AQ14=2,  AND(AQ13+AQ14=1, AQ15=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="41">
+        <f t="shared" ref="AQ15" si="53">MOD(AQ13+AQ14 + IF(OR(AR13+AR14=2,  AND(AR13+AR14=1, AR15=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AR15" s="41">
         <f>MOD(AR13+AR14 + IF(OR(AS13+AS14=2,  AND(AS13+AS14=1, AS15=0)), 1, 0), 2)</f>
         <v>1</v>
       </c>
-      <c r="AS15" s="42">
+      <c r="AS15" s="41">
         <f>MOD(AS14+AS13,2)</f>
         <v>1</v>
       </c>
@@ -3388,24 +3396,25 @@
       <c r="AW15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AX15" s="23">
+      <c r="AX15" s="22">
         <f>AX13+AX14</f>
         <v>19007</v>
       </c>
-      <c r="AY15" s="83"/>
-      <c r="AZ15" s="71"/>
-      <c r="BA15" s="71"/>
-      <c r="BB15" s="71"/>
-      <c r="BC15" s="71"/>
-      <c r="BD15" s="84"/>
+      <c r="AY15" s="64"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="66"/>
+      <c r="BG15" s="85"/>
     </row>
-    <row r="16" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+    <row r="16" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="AB16" s="2"/>
       <c r="AD16" s="15" t="s">
         <v>66</v>
@@ -3451,34 +3460,35 @@
       </c>
       <c r="AW16" s="7"/>
       <c r="AX16" s="3"/>
-      <c r="AY16" s="83"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="84"/>
+      <c r="AY16" s="64"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="66"/>
+      <c r="BG16" s="85"/>
     </row>
-    <row r="17" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+    <row r="17" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
@@ -3488,120 +3498,123 @@
       <c r="AV17" s="9"/>
       <c r="AW17" s="17"/>
       <c r="AX17" s="10"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="86"/>
-      <c r="BA17" s="86"/>
-      <c r="BB17" s="86"/>
-      <c r="BC17" s="86"/>
-      <c r="BD17" s="87"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="69"/>
+      <c r="BG17" s="85"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="AB18" s="74" t="s">
+    <row r="18" spans="1:59" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="AB18" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AC18" s="46" t="s">
+      <c r="AC18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AD18" s="41">
+      <c r="AD18" s="40">
         <f>K8</f>
         <v>1</v>
       </c>
-      <c r="AE18" s="41">
+      <c r="AE18" s="40">
         <f>L8</f>
         <v>1</v>
       </c>
-      <c r="AF18" s="41">
-        <f t="shared" ref="AF18:AF19" si="49">M8</f>
-        <v>1</v>
-      </c>
-      <c r="AG18" s="43">
-        <f t="shared" ref="AG18:AG19" si="50">N8</f>
-        <v>1</v>
-      </c>
-      <c r="AH18" s="41">
-        <f t="shared" ref="AH18:AH19" si="51">O8</f>
-        <v>1</v>
-      </c>
-      <c r="AI18" s="41">
-        <f t="shared" ref="AI18:AI19" si="52">P8</f>
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="41">
-        <f t="shared" ref="AJ18:AJ19" si="53">Q8</f>
-        <v>1</v>
-      </c>
-      <c r="AK18" s="43">
-        <f t="shared" ref="AK18:AK19" si="54">R8</f>
-        <v>1</v>
-      </c>
-      <c r="AL18" s="41">
-        <f t="shared" ref="AL18:AL19" si="55">S8</f>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="41">
-        <f t="shared" ref="AM18:AM19" si="56">T8</f>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="41">
-        <f t="shared" ref="AN18:AN19" si="57">U8</f>
-        <v>1</v>
-      </c>
-      <c r="AO18" s="43">
-        <f t="shared" ref="AO18:AO19" si="58">V8</f>
-        <v>1</v>
-      </c>
-      <c r="AP18" s="41">
-        <f t="shared" ref="AP18:AP19" si="59">W8</f>
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="41">
-        <f t="shared" ref="AQ18:AQ19" si="60">X8</f>
-        <v>0</v>
-      </c>
-      <c r="AR18" s="41">
-        <f t="shared" ref="AR18:AR19" si="61">Y8</f>
-        <v>1</v>
-      </c>
-      <c r="AS18" s="41">
-        <f t="shared" ref="AS18:AS19" si="62">Z8</f>
+      <c r="AF18" s="40">
+        <f t="shared" ref="AF18:AF19" si="54">M8</f>
+        <v>1</v>
+      </c>
+      <c r="AG18" s="42">
+        <f t="shared" ref="AG18:AG19" si="55">N8</f>
+        <v>1</v>
+      </c>
+      <c r="AH18" s="40">
+        <f t="shared" ref="AH18:AH19" si="56">O8</f>
+        <v>1</v>
+      </c>
+      <c r="AI18" s="40">
+        <f t="shared" ref="AI18:AI19" si="57">P8</f>
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="40">
+        <f t="shared" ref="AJ18:AJ19" si="58">Q8</f>
+        <v>1</v>
+      </c>
+      <c r="AK18" s="42">
+        <f t="shared" ref="AK18:AK19" si="59">R8</f>
+        <v>1</v>
+      </c>
+      <c r="AL18" s="40">
+        <f t="shared" ref="AL18:AL19" si="60">S8</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="40">
+        <f t="shared" ref="AM18:AM19" si="61">T8</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="40">
+        <f t="shared" ref="AN18:AN19" si="62">U8</f>
+        <v>1</v>
+      </c>
+      <c r="AO18" s="42">
+        <f t="shared" ref="AO18:AO19" si="63">V8</f>
+        <v>1</v>
+      </c>
+      <c r="AP18" s="40">
+        <f t="shared" ref="AP18:AP19" si="64">W8</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="40">
+        <f t="shared" ref="AQ18:AQ19" si="65">X8</f>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="40">
+        <f t="shared" ref="AR18:AR19" si="66">Y8</f>
+        <v>1</v>
+      </c>
+      <c r="AS18" s="40">
+        <f t="shared" ref="AS18:AS19" si="67">Z8</f>
         <v>1</v>
       </c>
       <c r="AT18" s="18"/>
       <c r="AU18" s="18"/>
-      <c r="AV18" s="75" t="s">
+      <c r="AV18" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AW18" s="51" t="s">
+      <c r="AW18" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AX18" s="53">
+      <c r="AX18" s="52">
         <f>G8</f>
         <v>-205</v>
       </c>
-      <c r="AY18" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ18" s="81"/>
-      <c r="BA18" s="81"/>
-      <c r="BB18" s="81"/>
-      <c r="BC18" s="81"/>
-      <c r="BD18" s="82"/>
+      <c r="AY18" s="61" t="str">
+        <f>IF(AM21=1,IF(AX20&gt;0,$BG$13,$BG$7),$BG$2)</f>
+        <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
+      </c>
+      <c r="AZ18" s="62"/>
+      <c r="BA18" s="62"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="62"/>
+      <c r="BD18" s="63"/>
+      <c r="BG18" s="86"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="46" t="s">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="45" t="s">
         <v>38</v>
       </c>
       <c r="AD19">
@@ -3613,146 +3626,147 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="AG19" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="AG19" s="43">
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="43">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="AO19" s="44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="AO19" s="43">
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AV19" s="76"/>
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="72"/>
       <c r="AW19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AX19" s="47">
+      <c r="AX19" s="46">
         <f>G9</f>
         <v>-19212</v>
       </c>
-      <c r="AY19" s="83"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="84"/>
+      <c r="AY19" s="64"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="66"/>
+      <c r="BG19" s="82"/>
     </row>
-    <row r="20" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+    <row r="20" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="42">
+      <c r="AD20" s="41">
         <f>MOD(AD18+AD19 + IF(OR(AE18+AE19=2,  AND(AE18+AE19=1, AE20=0)), 1, 0), 2)</f>
         <v>1</v>
       </c>
-      <c r="AE20" s="42">
-        <f t="shared" ref="AE20" si="63">MOD(AE18+AE19 + IF(OR(AF18+AF19=2,  AND(AF18+AF19=1, AF20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="42">
-        <f t="shared" ref="AF20" si="64">MOD(AF18+AF19 + IF(OR(AG18+AG19=2,  AND(AG18+AG19=1, AG20=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AG20" s="45">
+      <c r="AE20" s="41">
+        <f t="shared" ref="AE20" si="68">MOD(AE18+AE19 + IF(OR(AF18+AF19=2,  AND(AF18+AF19=1, AF20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="41">
+        <f t="shared" ref="AF20" si="69">MOD(AF18+AF19 + IF(OR(AG18+AG19=2,  AND(AG18+AG19=1, AG20=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="44">
         <f>MOD(AG18+AG19 + IF(OR(AH18+AH19=2,  AND(AH18+AH19=1, AH20=0)), 1, 0), 2)</f>
         <v>1</v>
       </c>
-      <c r="AH20" s="42">
-        <f t="shared" ref="AH20" si="65">MOD(AH18+AH19 + IF(OR(AI18+AI19=2,  AND(AI18+AI19=1, AI20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="42">
-        <f t="shared" ref="AI20" si="66">MOD(AI18+AI19 + IF(OR(AJ18+AJ19=2,  AND(AJ18+AJ19=1, AJ20=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="42">
-        <f t="shared" ref="AJ20" si="67">MOD(AJ18+AJ19 + IF(OR(AK18+AK19=2,  AND(AK18+AK19=1, AK20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="45">
-        <f t="shared" ref="AK20" si="68">MOD(AK18+AK19 + IF(OR(AL18+AL19=2,  AND(AL18+AL19=1, AL20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="42">
-        <f t="shared" ref="AL20" si="69">MOD(AL18+AL19 + IF(OR(AM18+AM19=2,  AND(AM18+AM19=1, AM20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="42">
-        <f t="shared" ref="AM20" si="70">MOD(AM18+AM19 + IF(OR(AN18+AN19=2,  AND(AN18+AN19=1, AN20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="42">
-        <f t="shared" ref="AN20" si="71">MOD(AN18+AN19 + IF(OR(AO18+AO19=2,  AND(AO18+AO19=1, AO20=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AO20" s="45">
-        <f t="shared" ref="AO20" si="72">MOD(AO18+AO19 + IF(OR(AP18+AP19=2,  AND(AP18+AP19=1, AP20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="42">
-        <f t="shared" ref="AP20" si="73">MOD(AP18+AP19 + IF(OR(AQ18+AQ19=2,  AND(AQ18+AQ19=1, AQ20=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="42">
-        <f t="shared" ref="AQ20" si="74">MOD(AQ18+AQ19 + IF(OR(AR18+AR19=2,  AND(AR18+AR19=1, AR20=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AR20" s="42">
+      <c r="AH20" s="41">
+        <f t="shared" ref="AH20" si="70">MOD(AH18+AH19 + IF(OR(AI18+AI19=2,  AND(AI18+AI19=1, AI20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="41">
+        <f t="shared" ref="AI20" si="71">MOD(AI18+AI19 + IF(OR(AJ18+AJ19=2,  AND(AJ18+AJ19=1, AJ20=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="41">
+        <f t="shared" ref="AJ20" si="72">MOD(AJ18+AJ19 + IF(OR(AK18+AK19=2,  AND(AK18+AK19=1, AK20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="44">
+        <f t="shared" ref="AK20" si="73">MOD(AK18+AK19 + IF(OR(AL18+AL19=2,  AND(AL18+AL19=1, AL20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="41">
+        <f t="shared" ref="AL20" si="74">MOD(AL18+AL19 + IF(OR(AM18+AM19=2,  AND(AM18+AM19=1, AM20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="41">
+        <f t="shared" ref="AM20" si="75">MOD(AM18+AM19 + IF(OR(AN18+AN19=2,  AND(AN18+AN19=1, AN20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="41">
+        <f t="shared" ref="AN20" si="76">MOD(AN18+AN19 + IF(OR(AO18+AO19=2,  AND(AO18+AO19=1, AO20=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AO20" s="44">
+        <f t="shared" ref="AO20" si="77">MOD(AO18+AO19 + IF(OR(AP18+AP19=2,  AND(AP18+AP19=1, AP20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="41">
+        <f t="shared" ref="AP20" si="78">MOD(AP18+AP19 + IF(OR(AQ18+AQ19=2,  AND(AQ18+AQ19=1, AQ20=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="41">
+        <f t="shared" ref="AQ20" si="79">MOD(AQ18+AQ19 + IF(OR(AR18+AR19=2,  AND(AR18+AR19=1, AR20=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AR20" s="41">
         <f>MOD(AR18+AR19 + IF(OR(AS18+AS19=2,  AND(AS18+AS19=1, AS20=0)), 1, 0), 2)</f>
         <v>1</v>
       </c>
-      <c r="AS20" s="42">
+      <c r="AS20" s="41">
         <f>MOD(AS19+AS18,2)</f>
         <v>1</v>
       </c>
@@ -3767,18 +3781,19 @@
       <c r="AW20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AX20" s="23">
+      <c r="AX20" s="22">
         <f>AX18+AX19</f>
         <v>-19417</v>
       </c>
-      <c r="AY20" s="83"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="84"/>
+      <c r="AY20" s="64"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="66"/>
+      <c r="BG20" s="82"/>
     </row>
-    <row r="21" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB21" s="2"/>
       <c r="AD21" s="15" t="s">
         <v>66</v>
@@ -3824,28 +3839,28 @@
       </c>
       <c r="AW21" s="7"/>
       <c r="AX21" s="3"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="84"/>
+      <c r="AY21" s="64"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="66"/>
     </row>
-    <row r="22" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB22" s="8"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
@@ -3855,108 +3870,109 @@
       <c r="AV22" s="9"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="10"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="86"/>
-      <c r="BA22" s="86"/>
-      <c r="BB22" s="86"/>
-      <c r="BC22" s="86"/>
-      <c r="BD22" s="87"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="69"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="AB23" s="74" t="s">
+    <row r="23" spans="1:59" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB23" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AC23" s="46" t="s">
+      <c r="AC23" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AD23" s="41">
+      <c r="AD23" s="40">
         <f>K9</f>
         <v>1</v>
       </c>
-      <c r="AE23" s="41">
+      <c r="AE23" s="40">
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="41">
-        <f t="shared" ref="AF23:AS23" si="75">M9</f>
-        <v>1</v>
-      </c>
-      <c r="AG23" s="43">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AH23" s="41">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="41">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="41">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="43">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="41">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AM23" s="41">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AN23" s="41">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AO23" s="43">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AP23" s="41">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="41">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AR23" s="41">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AS23" s="41">
-        <f t="shared" si="75"/>
+      <c r="AF23" s="40">
+        <f t="shared" ref="AF23:AS23" si="80">M9</f>
+        <v>1</v>
+      </c>
+      <c r="AG23" s="42">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AH23" s="40">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="40">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="40">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="42">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="40">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AM23" s="40">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AN23" s="40">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AO23" s="42">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AP23" s="40">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="40">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AR23" s="40">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="40">
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AT23" s="18"/>
       <c r="AU23" s="18"/>
-      <c r="AV23" s="75" t="s">
+      <c r="AV23" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AW23" s="51" t="s">
+      <c r="AW23" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AX23" s="53">
+      <c r="AX23" s="52">
         <f>G9</f>
         <v>-19212</v>
       </c>
-      <c r="AY23" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="82"/>
+      <c r="AY23" s="61" t="str">
+        <f>IF(AM26=1,IF(AX25&gt;0,$BG$13,$BG$7),$BG$2)</f>
+        <v>При сложении двух слагаемых получено отрицательное число. Сумма оказалась вне ОДЗ, результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</v>
+      </c>
+      <c r="AZ23" s="62"/>
+      <c r="BA23" s="62"/>
+      <c r="BB23" s="62"/>
+      <c r="BC23" s="62"/>
+      <c r="BD23" s="63"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="46" t="s">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AD24">
@@ -3968,140 +3984,140 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <f t="shared" ref="AF24:AS24" si="76">M10</f>
-        <v>1</v>
-      </c>
-      <c r="AG24" s="44">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="AF24:AS24" si="81">M10</f>
+        <v>1</v>
+      </c>
+      <c r="AG24" s="43">
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="44">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="43">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AO24" s="44">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="AO24" s="43">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AV24" s="76"/>
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="AV24" s="72"/>
       <c r="AW24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AX24" s="47">
+      <c r="AX24" s="46">
         <f>G10</f>
         <v>-19417</v>
       </c>
-      <c r="AY24" s="83"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="84"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65"/>
+      <c r="BC24" s="65"/>
+      <c r="BD24" s="66"/>
     </row>
-    <row r="25" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
-      <c r="AD25" s="42">
-        <f t="shared" ref="AD25" si="77">MOD(AD23+AD24 + IF(OR(AE23+AE24=2,  AND(AE23+AE24=1, AE25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="42">
-        <f t="shared" ref="AE25" si="78">MOD(AE23+AE24 + IF(OR(AF23+AF24=2,  AND(AF23+AF24=1, AF25=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AF25" s="42">
-        <f t="shared" ref="AF25" si="79">MOD(AF23+AF24 + IF(OR(AG23+AG24=2,  AND(AG23+AG24=1, AG25=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AG25" s="45">
-        <f t="shared" ref="AG25" si="80">MOD(AG23+AG24 + IF(OR(AH23+AH24=2,  AND(AH23+AH24=1, AH25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="42">
-        <f t="shared" ref="AH25" si="81">MOD(AH23+AH24 + IF(OR(AI23+AI24=2,  AND(AI23+AI24=1, AI25=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AI25" s="42">
-        <f t="shared" ref="AI25" si="82">MOD(AI23+AI24 + IF(OR(AJ23+AJ24=2,  AND(AJ23+AJ24=1, AJ25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="42">
-        <f t="shared" ref="AJ25" si="83">MOD(AJ23+AJ24 + IF(OR(AK23+AK24=2,  AND(AK23+AK24=1, AK25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="45">
-        <f t="shared" ref="AK25" si="84">MOD(AK23+AK24 + IF(OR(AL23+AL24=2,  AND(AL23+AL24=1, AL25=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AL25" s="42">
-        <f t="shared" ref="AL25" si="85">MOD(AL23+AL24 + IF(OR(AM23+AM24=2,  AND(AM23+AM24=1, AM25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="42">
-        <f t="shared" ref="AM25" si="86">MOD(AM23+AM24 + IF(OR(AN23+AN24=2,  AND(AN23+AN24=1, AN25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="42">
-        <f t="shared" ref="AN25" si="87">MOD(AN23+AN24 + IF(OR(AO23+AO24=2,  AND(AO23+AO24=1, AO25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="45">
-        <f t="shared" ref="AO25" si="88">MOD(AO23+AO24 + IF(OR(AP23+AP24=2,  AND(AP23+AP24=1, AP25=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AP25" s="42">
-        <f t="shared" ref="AP25" si="89">MOD(AP23+AP24 + IF(OR(AQ23+AQ24=2,  AND(AQ23+AQ24=1, AQ25=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="42">
-        <f t="shared" ref="AQ25" si="90">MOD(AQ23+AQ24 + IF(OR(AR23+AR24=2,  AND(AR23+AR24=1, AR25=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AR25" s="42">
+      <c r="AD25" s="41">
+        <f t="shared" ref="AD25" si="82">MOD(AD23+AD24 + IF(OR(AE23+AE24=2,  AND(AE23+AE24=1, AE25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="41">
+        <f t="shared" ref="AE25" si="83">MOD(AE23+AE24 + IF(OR(AF23+AF24=2,  AND(AF23+AF24=1, AF25=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="41">
+        <f t="shared" ref="AF25" si="84">MOD(AF23+AF24 + IF(OR(AG23+AG24=2,  AND(AG23+AG24=1, AG25=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AG25" s="44">
+        <f t="shared" ref="AG25" si="85">MOD(AG23+AG24 + IF(OR(AH23+AH24=2,  AND(AH23+AH24=1, AH25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="41">
+        <f t="shared" ref="AH25" si="86">MOD(AH23+AH24 + IF(OR(AI23+AI24=2,  AND(AI23+AI24=1, AI25=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AI25" s="41">
+        <f t="shared" ref="AI25" si="87">MOD(AI23+AI24 + IF(OR(AJ23+AJ24=2,  AND(AJ23+AJ24=1, AJ25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="41">
+        <f t="shared" ref="AJ25" si="88">MOD(AJ23+AJ24 + IF(OR(AK23+AK24=2,  AND(AK23+AK24=1, AK25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="44">
+        <f t="shared" ref="AK25" si="89">MOD(AK23+AK24 + IF(OR(AL23+AL24=2,  AND(AL23+AL24=1, AL25=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AL25" s="41">
+        <f t="shared" ref="AL25" si="90">MOD(AL23+AL24 + IF(OR(AM23+AM24=2,  AND(AM23+AM24=1, AM25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="41">
+        <f t="shared" ref="AM25" si="91">MOD(AM23+AM24 + IF(OR(AN23+AN24=2,  AND(AN23+AN24=1, AN25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="41">
+        <f t="shared" ref="AN25" si="92">MOD(AN23+AN24 + IF(OR(AO23+AO24=2,  AND(AO23+AO24=1, AO25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="44">
+        <f t="shared" ref="AO25" si="93">MOD(AO23+AO24 + IF(OR(AP23+AP24=2,  AND(AP23+AP24=1, AP25=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AP25" s="41">
+        <f t="shared" ref="AP25" si="94">MOD(AP23+AP24 + IF(OR(AQ23+AQ24=2,  AND(AQ23+AQ24=1, AQ25=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="41">
+        <f t="shared" ref="AQ25" si="95">MOD(AQ23+AQ24 + IF(OR(AR23+AR24=2,  AND(AR23+AR24=1, AR25=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="41">
         <f>MOD(AR23+AR24 + IF(OR(AS23+AS24=2,  AND(AS23+AS24=1, AS25=0)), 1, 0), 2)</f>
         <v>1</v>
       </c>
-      <c r="AS25" s="42">
+      <c r="AS25" s="41">
         <f>MOD(AS24+AS23,2)</f>
         <v>1</v>
       </c>
@@ -4116,18 +4132,18 @@
       <c r="AW25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AX25" s="23">
+      <c r="AX25" s="22">
         <f>AX23+AX24</f>
         <v>-38629</v>
       </c>
-      <c r="AY25" s="83"/>
-      <c r="AZ25" s="71"/>
-      <c r="BA25" s="71"/>
-      <c r="BB25" s="71"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="84"/>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="65"/>
+      <c r="BC25" s="65"/>
+      <c r="BD25" s="66"/>
     </row>
-    <row r="26" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB26" s="2"/>
       <c r="AD26" s="15" t="s">
         <v>66</v>
@@ -4173,28 +4189,28 @@
       </c>
       <c r="AW26" s="7"/>
       <c r="AX26" s="3"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="71"/>
-      <c r="BA26" s="71"/>
-      <c r="BB26" s="71"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="84"/>
+      <c r="AY26" s="64"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
+      <c r="BB26" s="65"/>
+      <c r="BC26" s="65"/>
+      <c r="BD26" s="66"/>
     </row>
-    <row r="27" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
@@ -4204,108 +4220,109 @@
       <c r="AV27" s="9"/>
       <c r="AW27" s="17"/>
       <c r="AX27" s="10"/>
-      <c r="AY27" s="85"/>
-      <c r="AZ27" s="86"/>
-      <c r="BA27" s="86"/>
-      <c r="BB27" s="86"/>
-      <c r="BC27" s="86"/>
-      <c r="BD27" s="87"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="69"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="AB28" s="74" t="s">
+    <row r="28" spans="1:59" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AC28" s="46" t="s">
+      <c r="AC28" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="AD28" s="41">
+      <c r="AD28" s="40">
         <f>K2</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="41">
+      <c r="AE28" s="40">
         <f>L2</f>
         <v>0</v>
       </c>
-      <c r="AF28" s="41">
-        <f t="shared" ref="AF28:AS28" si="91">M2</f>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="43">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="41">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="41">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="41">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="43">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="41">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
-      <c r="AM28" s="41">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
-      <c r="AN28" s="41">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AO28" s="43">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="41">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="41">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
-      <c r="AR28" s="41">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AS28" s="41">
-        <f t="shared" si="91"/>
+      <c r="AF28" s="40">
+        <f t="shared" ref="AF28:AS28" si="96">M2</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="40">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="40">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="40">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="40">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="AM28" s="40">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="AN28" s="40">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="42">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="40">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="40">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="AR28" s="40">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="40">
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="AT28" s="18"/>
       <c r="AU28" s="18"/>
-      <c r="AV28" s="75" t="s">
+      <c r="AV28" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AW28" s="51" t="s">
+      <c r="AW28" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AX28" s="53">
+      <c r="AX28" s="52">
         <f>G2</f>
         <v>205</v>
       </c>
-      <c r="AY28" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ28" s="81"/>
-      <c r="BA28" s="81"/>
-      <c r="BB28" s="81"/>
-      <c r="BC28" s="81"/>
-      <c r="BD28" s="82"/>
+      <c r="AY28" s="61" t="str">
+        <f>IF(AM31=1,IF(AX30&gt;0,$BG$13,$BG$7),$BG$2)</f>
+        <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
+      </c>
+      <c r="AZ28" s="62"/>
+      <c r="BA28" s="62"/>
+      <c r="BB28" s="62"/>
+      <c r="BC28" s="62"/>
+      <c r="BD28" s="63"/>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="46" t="s">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="45" t="s">
         <v>38</v>
       </c>
       <c r="AD29">
@@ -4317,140 +4334,140 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <f t="shared" ref="AF29:AS29" si="92">M9</f>
-        <v>1</v>
-      </c>
-      <c r="AG29" s="44">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="AF29:AS29" si="97">M9</f>
+        <v>1</v>
+      </c>
+      <c r="AG29" s="43">
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="44">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="43">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="92"/>
-        <v>1</v>
-      </c>
-      <c r="AO29" s="44">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="43">
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AV29" s="76"/>
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="72"/>
       <c r="AW29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AX29" s="47">
+      <c r="AX29" s="46">
         <f>G9</f>
         <v>-19212</v>
       </c>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="84"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="65"/>
+      <c r="BA29" s="65"/>
+      <c r="BB29" s="65"/>
+      <c r="BC29" s="65"/>
+      <c r="BD29" s="66"/>
     </row>
-    <row r="30" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB30" s="8"/>
       <c r="AC30" s="9"/>
-      <c r="AD30" s="42">
-        <f t="shared" ref="AD30" si="93">MOD(AD28+AD29 + IF(OR(AE28+AE29=2,  AND(AE28+AE29=1, AE30=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AE30" s="42">
-        <f t="shared" ref="AE30" si="94">MOD(AE28+AE29 + IF(OR(AF28+AF29=2,  AND(AF28+AF29=1, AF30=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="42">
-        <f t="shared" ref="AF30" si="95">MOD(AF28+AF29 + IF(OR(AG28+AG29=2,  AND(AG28+AG29=1, AG30=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AG30" s="45">
-        <f t="shared" ref="AG30" si="96">MOD(AG28+AG29 + IF(OR(AH28+AH29=2,  AND(AH28+AH29=1, AH30=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AH30" s="42">
-        <f t="shared" ref="AH30" si="97">MOD(AH28+AH29 + IF(OR(AI28+AI29=2,  AND(AI28+AI29=1, AI30=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="42">
-        <f t="shared" ref="AI30" si="98">MOD(AI28+AI29 + IF(OR(AJ28+AJ29=2,  AND(AJ28+AJ29=1, AJ30=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="42">
-        <f t="shared" ref="AJ30" si="99">MOD(AJ28+AJ29 + IF(OR(AK28+AK29=2,  AND(AK28+AK29=1, AK30=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="45">
-        <f t="shared" ref="AK30" si="100">MOD(AK28+AK29 + IF(OR(AL28+AL29=2,  AND(AL28+AL29=1, AL30=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AL30" s="42">
-        <f t="shared" ref="AL30" si="101">MOD(AL28+AL29 + IF(OR(AM28+AM29=2,  AND(AM28+AM29=1, AM30=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AM30" s="42">
-        <f t="shared" ref="AM30" si="102">MOD(AM28+AM29 + IF(OR(AN28+AN29=2,  AND(AN28+AN29=1, AN30=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AN30" s="42">
-        <f t="shared" ref="AN30" si="103">MOD(AN28+AN29 + IF(OR(AO28+AO29=2,  AND(AO28+AO29=1, AO30=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="45">
-        <f t="shared" ref="AO30" si="104">MOD(AO28+AO29 + IF(OR(AP28+AP29=2,  AND(AP28+AP29=1, AP30=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AP30" s="42">
-        <f t="shared" ref="AP30" si="105">MOD(AP28+AP29 + IF(OR(AQ28+AQ29=2,  AND(AQ28+AQ29=1, AQ30=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="42">
-        <f t="shared" ref="AQ30" si="106">MOD(AQ28+AQ29 + IF(OR(AR28+AR29=2,  AND(AR28+AR29=1, AR30=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AR30" s="42">
+      <c r="AD30" s="41">
+        <f t="shared" ref="AD30" si="98">MOD(AD28+AD29 + IF(OR(AE28+AE29=2,  AND(AE28+AE29=1, AE30=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="41">
+        <f t="shared" ref="AE30" si="99">MOD(AE28+AE29 + IF(OR(AF28+AF29=2,  AND(AF28+AF29=1, AF30=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="41">
+        <f t="shared" ref="AF30" si="100">MOD(AF28+AF29 + IF(OR(AG28+AG29=2,  AND(AG28+AG29=1, AG30=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AG30" s="44">
+        <f t="shared" ref="AG30" si="101">MOD(AG28+AG29 + IF(OR(AH28+AH29=2,  AND(AH28+AH29=1, AH30=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AH30" s="41">
+        <f t="shared" ref="AH30" si="102">MOD(AH28+AH29 + IF(OR(AI28+AI29=2,  AND(AI28+AI29=1, AI30=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="41">
+        <f t="shared" ref="AI30" si="103">MOD(AI28+AI29 + IF(OR(AJ28+AJ29=2,  AND(AJ28+AJ29=1, AJ30=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="41">
+        <f t="shared" ref="AJ30" si="104">MOD(AJ28+AJ29 + IF(OR(AK28+AK29=2,  AND(AK28+AK29=1, AK30=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="44">
+        <f t="shared" ref="AK30" si="105">MOD(AK28+AK29 + IF(OR(AL28+AL29=2,  AND(AL28+AL29=1, AL30=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AL30" s="41">
+        <f t="shared" ref="AL30" si="106">MOD(AL28+AL29 + IF(OR(AM28+AM29=2,  AND(AM28+AM29=1, AM30=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AM30" s="41">
+        <f t="shared" ref="AM30" si="107">MOD(AM28+AM29 + IF(OR(AN28+AN29=2,  AND(AN28+AN29=1, AN30=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AN30" s="41">
+        <f t="shared" ref="AN30" si="108">MOD(AN28+AN29 + IF(OR(AO28+AO29=2,  AND(AO28+AO29=1, AO30=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="44">
+        <f t="shared" ref="AO30" si="109">MOD(AO28+AO29 + IF(OR(AP28+AP29=2,  AND(AP28+AP29=1, AP30=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="41">
+        <f t="shared" ref="AP30" si="110">MOD(AP28+AP29 + IF(OR(AQ28+AQ29=2,  AND(AQ28+AQ29=1, AQ30=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="41">
+        <f t="shared" ref="AQ30" si="111">MOD(AQ28+AQ29 + IF(OR(AR28+AR29=2,  AND(AR28+AR29=1, AR30=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AR30" s="41">
         <f>MOD(AR28+AR29 + IF(OR(AS28+AS29=2,  AND(AS28+AS29=1, AS30=0)), 1, 0), 2)</f>
         <v>0</v>
       </c>
-      <c r="AS30" s="42">
+      <c r="AS30" s="41">
         <f>MOD(AS29+AS28,2)</f>
         <v>1</v>
       </c>
@@ -4465,18 +4482,18 @@
       <c r="AW30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AX30" s="23">
+      <c r="AX30" s="22">
         <f>AX28+AX29</f>
         <v>-19007</v>
       </c>
-      <c r="AY30" s="83"/>
-      <c r="AZ30" s="71"/>
-      <c r="BA30" s="71"/>
-      <c r="BB30" s="71"/>
-      <c r="BC30" s="71"/>
-      <c r="BD30" s="84"/>
+      <c r="AY30" s="64"/>
+      <c r="AZ30" s="65"/>
+      <c r="BA30" s="65"/>
+      <c r="BB30" s="65"/>
+      <c r="BC30" s="65"/>
+      <c r="BD30" s="66"/>
     </row>
-    <row r="31" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB31" s="2"/>
       <c r="AD31" s="15" t="s">
         <v>66</v>
@@ -4522,28 +4539,28 @@
       </c>
       <c r="AW31" s="7"/>
       <c r="AX31" s="3"/>
-      <c r="AY31" s="83"/>
-      <c r="AZ31" s="71"/>
-      <c r="BA31" s="71"/>
-      <c r="BB31" s="71"/>
-      <c r="BC31" s="71"/>
-      <c r="BD31" s="84"/>
+      <c r="AY31" s="64"/>
+      <c r="AZ31" s="65"/>
+      <c r="BA31" s="65"/>
+      <c r="BB31" s="65"/>
+      <c r="BC31" s="65"/>
+      <c r="BD31" s="66"/>
     </row>
-    <row r="32" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB32" s="8"/>
       <c r="AC32" s="9"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
       <c r="AP32" s="9"/>
       <c r="AQ32" s="9"/>
       <c r="AR32" s="9"/>
@@ -4553,108 +4570,109 @@
       <c r="AV32" s="9"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="10"/>
-      <c r="AY32" s="85"/>
-      <c r="AZ32" s="86"/>
-      <c r="BA32" s="86"/>
-      <c r="BB32" s="86"/>
-      <c r="BC32" s="86"/>
-      <c r="BD32" s="87"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="69"/>
     </row>
-    <row r="33" spans="28:56" x14ac:dyDescent="0.2">
-      <c r="AB33" s="74" t="s">
+    <row r="33" spans="28:56" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB33" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AC33" s="46" t="s">
+      <c r="AC33" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AD33" s="41">
+      <c r="AD33" s="40">
         <f>K12</f>
         <v>1</v>
       </c>
-      <c r="AE33" s="41">
+      <c r="AE33" s="40">
         <f>L12</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="41">
-        <f t="shared" ref="AF33:AS33" si="107">M12</f>
-        <v>1</v>
-      </c>
-      <c r="AG33" s="43">
-        <f t="shared" si="107"/>
-        <v>1</v>
-      </c>
-      <c r="AH33" s="41">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="41">
-        <f t="shared" si="107"/>
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="41">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="43">
-        <f t="shared" si="107"/>
-        <v>1</v>
-      </c>
-      <c r="AL33" s="41">
-        <f t="shared" si="107"/>
-        <v>1</v>
-      </c>
-      <c r="AM33" s="41">
-        <f t="shared" si="107"/>
-        <v>1</v>
-      </c>
-      <c r="AN33" s="41">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AO33" s="43">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AP33" s="41">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="41">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AR33" s="41">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AS33" s="41">
-        <f t="shared" si="107"/>
+      <c r="AF33" s="40">
+        <f t="shared" ref="AF33:AS33" si="112">M12</f>
+        <v>1</v>
+      </c>
+      <c r="AG33" s="42">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="AH33" s="40">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="40">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="40">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="42">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="AL33" s="40">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="AM33" s="40">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="AN33" s="40">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="42">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="40">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="40">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AR33" s="40">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AS33" s="40">
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
       <c r="AT33" s="18"/>
       <c r="AU33" s="18"/>
-      <c r="AV33" s="75" t="s">
+      <c r="AV33" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AW33" s="51" t="s">
+      <c r="AW33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="53">
+      <c r="AX33" s="52">
         <f>G12</f>
         <v>-19007</v>
       </c>
-      <c r="AY33" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ33" s="81"/>
-      <c r="BA33" s="81"/>
-      <c r="BB33" s="81"/>
-      <c r="BC33" s="81"/>
-      <c r="BD33" s="82"/>
+      <c r="AY33" s="61" t="str">
+        <f>IF(AM36=1,IF(AX35&gt;0,$BG$13,$BG$7),$BG$2)</f>
+        <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
+      </c>
+      <c r="AZ33" s="62"/>
+      <c r="BA33" s="62"/>
+      <c r="BB33" s="62"/>
+      <c r="BC33" s="62"/>
+      <c r="BD33" s="63"/>
     </row>
     <row r="34" spans="28:56" x14ac:dyDescent="0.2">
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="46" t="s">
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="45" t="s">
         <v>36</v>
       </c>
       <c r="AD34">
@@ -4666,140 +4684,140 @@
         <v>1</v>
       </c>
       <c r="AF34">
-        <f t="shared" ref="AF34:AS34" si="108">M4</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="44">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="AF34:AS34" si="113">M4</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="43">
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="108"/>
-        <v>1</v>
-      </c>
-      <c r="AK34" s="44">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AK34" s="43">
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="44">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="43">
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="AQ34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AR34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AS34">
-        <f t="shared" si="108"/>
-        <v>1</v>
-      </c>
-      <c r="AV34" s="76"/>
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AV34" s="72"/>
       <c r="AW34" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AX34" s="47">
+      <c r="AX34" s="46">
         <f>G4</f>
         <v>19417</v>
       </c>
-      <c r="AY34" s="83"/>
-      <c r="AZ34" s="71"/>
-      <c r="BA34" s="71"/>
-      <c r="BB34" s="71"/>
-      <c r="BC34" s="71"/>
-      <c r="BD34" s="84"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="65"/>
+      <c r="BA34" s="65"/>
+      <c r="BB34" s="65"/>
+      <c r="BC34" s="65"/>
+      <c r="BD34" s="66"/>
     </row>
     <row r="35" spans="28:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB35" s="8"/>
       <c r="AC35" s="9"/>
-      <c r="AD35" s="42">
-        <f t="shared" ref="AD35" si="109">MOD(AD33+AD34 + IF(OR(AE33+AE34=2,  AND(AE33+AE34=1, AE35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="42">
-        <f t="shared" ref="AE35" si="110">MOD(AE33+AE34 + IF(OR(AF33+AF34=2,  AND(AF33+AF34=1, AF35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="42">
-        <f t="shared" ref="AF35" si="111">MOD(AF33+AF34 + IF(OR(AG33+AG34=2,  AND(AG33+AG34=1, AG35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="45">
-        <f t="shared" ref="AG35" si="112">MOD(AG33+AG34 + IF(OR(AH33+AH34=2,  AND(AH33+AH34=1, AH35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="42">
-        <f t="shared" ref="AH35" si="113">MOD(AH33+AH34 + IF(OR(AI33+AI34=2,  AND(AI33+AI34=1, AI35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="42">
-        <f t="shared" ref="AI35" si="114">MOD(AI33+AI34 + IF(OR(AJ33+AJ34=2,  AND(AJ33+AJ34=1, AJ35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="42">
-        <f t="shared" ref="AJ35" si="115">MOD(AJ33+AJ34 + IF(OR(AK33+AK34=2,  AND(AK33+AK34=1, AK35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="45">
-        <f t="shared" ref="AK35" si="116">MOD(AK33+AK34 + IF(OR(AL33+AL34=2,  AND(AL33+AL34=1, AL35=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AL35" s="42">
-        <f t="shared" ref="AL35" si="117">MOD(AL33+AL34 + IF(OR(AM33+AM34=2,  AND(AM33+AM34=1, AM35=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AM35" s="42">
-        <f t="shared" ref="AM35" si="118">MOD(AM33+AM34 + IF(OR(AN33+AN34=2,  AND(AN33+AN34=1, AN35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="42">
-        <f t="shared" ref="AN35" si="119">MOD(AN33+AN34 + IF(OR(AO33+AO34=2,  AND(AO33+AO34=1, AO35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AO35" s="45">
-        <f t="shared" ref="AO35" si="120">MOD(AO33+AO34 + IF(OR(AP33+AP34=2,  AND(AP33+AP34=1, AP35=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AP35" s="42">
-        <f t="shared" ref="AP35" si="121">MOD(AP33+AP34 + IF(OR(AQ33+AQ34=2,  AND(AQ33+AQ34=1, AQ35=0)), 1, 0), 2)</f>
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="42">
-        <f t="shared" ref="AQ35" si="122">MOD(AQ33+AQ34 + IF(OR(AR33+AR34=2,  AND(AR33+AR34=1, AR35=0)), 1, 0), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AR35" s="42">
+      <c r="AD35" s="41">
+        <f t="shared" ref="AD35" si="114">MOD(AD33+AD34 + IF(OR(AE33+AE34=2,  AND(AE33+AE34=1, AE35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="41">
+        <f t="shared" ref="AE35" si="115">MOD(AE33+AE34 + IF(OR(AF33+AF34=2,  AND(AF33+AF34=1, AF35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="41">
+        <f t="shared" ref="AF35" si="116">MOD(AF33+AF34 + IF(OR(AG33+AG34=2,  AND(AG33+AG34=1, AG35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="44">
+        <f t="shared" ref="AG35" si="117">MOD(AG33+AG34 + IF(OR(AH33+AH34=2,  AND(AH33+AH34=1, AH35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="41">
+        <f t="shared" ref="AH35" si="118">MOD(AH33+AH34 + IF(OR(AI33+AI34=2,  AND(AI33+AI34=1, AI35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="41">
+        <f t="shared" ref="AI35" si="119">MOD(AI33+AI34 + IF(OR(AJ33+AJ34=2,  AND(AJ33+AJ34=1, AJ35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="41">
+        <f t="shared" ref="AJ35" si="120">MOD(AJ33+AJ34 + IF(OR(AK33+AK34=2,  AND(AK33+AK34=1, AK35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="44">
+        <f t="shared" ref="AK35" si="121">MOD(AK33+AK34 + IF(OR(AL33+AL34=2,  AND(AL33+AL34=1, AL35=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AL35" s="41">
+        <f t="shared" ref="AL35" si="122">MOD(AL33+AL34 + IF(OR(AM33+AM34=2,  AND(AM33+AM34=1, AM35=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AM35" s="41">
+        <f t="shared" ref="AM35" si="123">MOD(AM33+AM34 + IF(OR(AN33+AN34=2,  AND(AN33+AN34=1, AN35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="41">
+        <f t="shared" ref="AN35" si="124">MOD(AN33+AN34 + IF(OR(AO33+AO34=2,  AND(AO33+AO34=1, AO35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="44">
+        <f t="shared" ref="AO35" si="125">MOD(AO33+AO34 + IF(OR(AP33+AP34=2,  AND(AP33+AP34=1, AP35=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AP35" s="41">
+        <f t="shared" ref="AP35" si="126">MOD(AP33+AP34 + IF(OR(AQ33+AQ34=2,  AND(AQ33+AQ34=1, AQ35=0)), 1, 0), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="41">
+        <f t="shared" ref="AQ35" si="127">MOD(AQ33+AQ34 + IF(OR(AR33+AR34=2,  AND(AR33+AR34=1, AR35=0)), 1, 0), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AR35" s="41">
         <f>MOD(AR33+AR34 + IF(OR(AS33+AS34=2,  AND(AS33+AS34=1, AS35=0)), 1, 0), 2)</f>
         <v>1</v>
       </c>
-      <c r="AS35" s="42">
+      <c r="AS35" s="41">
         <f>MOD(AS34+AS33,2)</f>
         <v>0</v>
       </c>
@@ -4814,16 +4832,16 @@
       <c r="AW35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AX35" s="23">
+      <c r="AX35" s="22">
         <f>AX33+AX34</f>
         <v>410</v>
       </c>
-      <c r="AY35" s="83"/>
-      <c r="AZ35" s="71"/>
-      <c r="BA35" s="71"/>
-      <c r="BB35" s="71"/>
-      <c r="BC35" s="71"/>
-      <c r="BD35" s="84"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="65"/>
+      <c r="BA35" s="65"/>
+      <c r="BB35" s="65"/>
+      <c r="BC35" s="65"/>
+      <c r="BD35" s="66"/>
     </row>
     <row r="36" spans="28:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB36" s="2"/>
@@ -4871,28 +4889,28 @@
       </c>
       <c r="AW36" s="7"/>
       <c r="AX36" s="3"/>
-      <c r="AY36" s="83"/>
-      <c r="AZ36" s="71"/>
-      <c r="BA36" s="71"/>
-      <c r="BB36" s="71"/>
-      <c r="BC36" s="71"/>
-      <c r="BD36" s="84"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="65"/>
+      <c r="BA36" s="65"/>
+      <c r="BB36" s="65"/>
+      <c r="BC36" s="65"/>
+      <c r="BD36" s="66"/>
     </row>
     <row r="37" spans="28:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB37" s="8"/>
       <c r="AC37" s="9"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="38"/>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
       <c r="AP37" s="9"/>
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
@@ -4902,28 +4920,18 @@
       <c r="AV37" s="9"/>
       <c r="AW37" s="17"/>
       <c r="AX37" s="10"/>
-      <c r="AY37" s="85"/>
-      <c r="AZ37" s="86"/>
-      <c r="BA37" s="86"/>
-      <c r="BB37" s="86"/>
-      <c r="BC37" s="86"/>
-      <c r="BD37" s="87"/>
+      <c r="AY37" s="67"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="68"/>
+      <c r="BD37" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AY33:BD37"/>
-    <mergeCell ref="AY3:BD7"/>
-    <mergeCell ref="AY8:BD12"/>
-    <mergeCell ref="AY13:BD17"/>
-    <mergeCell ref="AY18:BD22"/>
-    <mergeCell ref="AY23:BD27"/>
-    <mergeCell ref="AY28:BD32"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AV23:AV24"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AV28:AV29"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AV33:AV34"/>
+  <mergeCells count="29">
+    <mergeCell ref="BG2:BG6"/>
+    <mergeCell ref="BG7:BG12"/>
+    <mergeCell ref="BG13:BG18"/>
     <mergeCell ref="A15:F20"/>
     <mergeCell ref="AB1:AS1"/>
     <mergeCell ref="AB3:AB4"/>
@@ -4937,6 +4945,19 @@
     <mergeCell ref="AV13:AV14"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AV23:AV24"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AV33:AV34"/>
+    <mergeCell ref="AY33:BD37"/>
+    <mergeCell ref="AY3:BD7"/>
+    <mergeCell ref="AY8:BD12"/>
+    <mergeCell ref="AY13:BD17"/>
+    <mergeCell ref="AY18:BD22"/>
+    <mergeCell ref="AY23:BD27"/>
+    <mergeCell ref="AY28:BD32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:Z5">
@@ -4948,66 +4969,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:Z13">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AX5">
-    <cfRule type="expression" dxfId="13" priority="31">
+    <cfRule type="expression" dxfId="15" priority="31">
       <formula>$AU5&lt;&gt;$AX5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="32">
+    <cfRule type="expression" dxfId="14" priority="32">
       <formula>$AU5=$AX5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU10:AX10">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$AU10&lt;&gt;$AX10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$AU10=$AX10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15:AX15">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$AU15&lt;&gt;$AX15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$AU15=$AX15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20:AX20">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$AU20&lt;&gt;$AX20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$AU20=$AX20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU25:AX25">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$AU25&lt;&gt;$AX25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$AU25=$AX25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU30:AX30">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$AU30&lt;&gt;$AX30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$AU30=$AX30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AX35">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="3" priority="17">
       <formula>$AU35&lt;&gt;$AX35</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$AU35=$AX35</formula>
     </cfRule>
   </conditionalFormatting>

--- a/lab5/Информатика_ЛР5_P3115_Зенченков_Павел_Геннадьевич.xlsx
+++ b/lab5/Информатика_ЛР5_P3115_Зенченков_Павел_Геннадьевич.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nafine/Desktop/itmo/inf/lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nafine/Desktop/itmo/inf/INF-LABS/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486E8A72-366E-8A4A-A2CF-E174665022C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5152F4B-84DC-3943-8F92-315A0FF5EBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E3C98339-DF1E-FA4B-816F-8019EBB63017}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -666,6 +666,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -678,9 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,74 +738,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -899,6 +883,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1245,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C2770-3334-D445-A1E9-CD2D2ADE898F}">
   <dimension ref="A1:BG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1278,49 +1272,49 @@
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="77"/>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
       <c r="Z1" s="19"/>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
       <c r="AT1" s="18"/>
       <c r="AW1" s="7"/>
-      <c r="BG1" s="81" t="s">
+      <c r="BG1" s="62" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1349,7 +1343,7 @@
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="57">
-        <f t="shared" ref="K2:Z13" si="0">MOD(INT($G2/2^K$14),2)</f>
+        <f t="shared" ref="K2:Z7" si="0">MOD(INT($G2/2^K$14),2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="57">
@@ -1463,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="7"/>
-      <c r="BG2" s="83" t="s">
+      <c r="BG2" s="65" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1507,7 +1501,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="78">
+      <c r="O3" s="59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1523,7 +1517,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S3" s="78">
+      <c r="S3" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1555,7 +1549,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="70" t="s">
+      <c r="AB3" s="72" t="s">
         <v>65</v>
       </c>
       <c r="AC3" s="45" t="s">
@@ -1627,7 +1621,7 @@
       </c>
       <c r="AT3" s="18"/>
       <c r="AU3" s="18"/>
-      <c r="AV3" s="71" t="s">
+      <c r="AV3" s="73" t="s">
         <v>65</v>
       </c>
       <c r="AW3" s="50" t="s">
@@ -1637,16 +1631,16 @@
         <f>G2</f>
         <v>205</v>
       </c>
-      <c r="AY3" s="61" t="str">
+      <c r="AY3" s="78" t="str">
         <f>IF(AM6=1,IF(AX5&gt;0,$BG$13,$BG$7),$BG$2)</f>
         <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="63"/>
-      <c r="BG3" s="84"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="80"/>
+      <c r="BG3" s="66"/>
     </row>
     <row r="4" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1684,7 +1678,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="78">
+      <c r="O4" s="59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1700,7 +1694,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S4" s="78">
+      <c r="S4" s="59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1732,7 +1726,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB4" s="70"/>
+      <c r="AB4" s="72"/>
       <c r="AC4" s="45" t="s">
         <v>35</v>
       </c>
@@ -1800,7 +1794,7 @@
         <f>Z3</f>
         <v>0</v>
       </c>
-      <c r="AV4" s="72"/>
+      <c r="AV4" s="74"/>
       <c r="AW4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1808,13 +1802,13 @@
         <f>G3</f>
         <v>19212</v>
       </c>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="66"/>
-      <c r="BG4" s="84"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="82"/>
+      <c r="BG4" s="66"/>
     </row>
     <row r="5" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -1850,7 +1844,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O5" s="78">
+      <c r="O5" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1866,7 +1860,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="78">
+      <c r="S5" s="59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1979,16 +1973,16 @@
         <f>AX3+AX4</f>
         <v>19417</v>
       </c>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="65"/>
-      <c r="BC5" s="65"/>
-      <c r="BD5" s="66"/>
-      <c r="BG5" s="84"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="82"/>
+      <c r="BG5" s="66"/>
     </row>
     <row r="6" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87">
+      <c r="A6" s="64">
         <v>-32768</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -2027,7 +2021,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="79">
+      <c r="O6" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2043,7 +2037,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="79">
+      <c r="S6" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2120,13 +2114,13 @@
       </c>
       <c r="AW6" s="7"/>
       <c r="AX6" s="3"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="65"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
-      <c r="BC6" s="65"/>
-      <c r="BD6" s="66"/>
-      <c r="BG6" s="84"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="82"/>
+      <c r="BG6" s="66"/>
     </row>
     <row r="7" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2162,7 +2156,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="79">
+      <c r="O7" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2178,7 +2172,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S7" s="79">
+      <c r="S7" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2233,13 +2227,13 @@
       <c r="AV7" s="9"/>
       <c r="AW7" s="17"/>
       <c r="AX7" s="10"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="69"/>
-      <c r="BG7" s="84" t="s">
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="85"/>
+      <c r="BG7" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2324,7 +2318,7 @@
         <f>Z2</f>
         <v>1</v>
       </c>
-      <c r="AB8" s="70" t="s">
+      <c r="AB8" s="72" t="s">
         <v>65</v>
       </c>
       <c r="AC8" s="45" t="s">
@@ -2396,7 +2390,7 @@
       </c>
       <c r="AT8" s="18"/>
       <c r="AU8" s="18"/>
-      <c r="AV8" s="71" t="s">
+      <c r="AV8" s="73" t="s">
         <v>65</v>
       </c>
       <c r="AW8" s="50" t="s">
@@ -2406,16 +2400,16 @@
         <f>G3</f>
         <v>19212</v>
       </c>
-      <c r="AY8" s="61" t="str">
+      <c r="AY8" s="78" t="str">
         <f>IF(AM11=1,IF(AX10&gt;0,$BG$13,$BG$7),$BG$2)</f>
         <v>При сложении двух слагаемых получено положительное число. Сумма оказалась вне ОДЗ, результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="63"/>
-      <c r="BG8" s="84"/>
+      <c r="AZ8" s="79"/>
+      <c r="BA8" s="79"/>
+      <c r="BB8" s="79"/>
+      <c r="BC8" s="79"/>
+      <c r="BD8" s="80"/>
+      <c r="BG8" s="66"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="E9" s="25" t="s">
@@ -2498,7 +2492,7 @@
         <f t="shared" ref="Z9:Z13" si="21">Z3</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="70"/>
+      <c r="AB9" s="72"/>
       <c r="AC9" s="45" t="s">
         <v>36</v>
       </c>
@@ -2566,7 +2560,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AV9" s="72"/>
+      <c r="AV9" s="74"/>
       <c r="AW9" s="13" t="s">
         <v>4</v>
       </c>
@@ -2574,13 +2568,13 @@
         <f>G4</f>
         <v>19417</v>
       </c>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="66"/>
-      <c r="BG9" s="84"/>
+      <c r="AY9" s="81"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="82"/>
+      <c r="BG9" s="66"/>
     </row>
     <row r="10" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E10" s="25" t="s">
@@ -2600,7 +2594,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="53">
-        <f t="shared" ref="K8:W13" si="23">MOD(IF(K4=1,0,1)+IF(L10=L4,1,0),2)</f>
+        <f t="shared" ref="K10:W13" si="23">MOD(IF(K4=1,0,1)+IF(L10=L4,1,0),2)</f>
         <v>1</v>
       </c>
       <c r="L10" s="53">
@@ -2652,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="53">
-        <f t="shared" ref="X9:X13" si="24">MOD(IF(X4=1,0,1)+IF(Y10=Y4,1,0),2)</f>
+        <f t="shared" ref="X10:X13" si="24">MOD(IF(X4=1,0,1)+IF(Y10=Y4,1,0),2)</f>
         <v>1</v>
       </c>
       <c r="Y10" s="53">
@@ -2744,13 +2738,13 @@
         <f>AX8+AX9</f>
         <v>38629</v>
       </c>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="66"/>
-      <c r="BG10" s="84"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="82"/>
+      <c r="BG10" s="66"/>
     </row>
     <row r="11" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E11" s="25" t="s">
@@ -2878,13 +2872,13 @@
       </c>
       <c r="AW11" s="7"/>
       <c r="AX11" s="3"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="65"/>
-      <c r="BB11" s="65"/>
-      <c r="BC11" s="65"/>
-      <c r="BD11" s="66"/>
-      <c r="BG11" s="84"/>
+      <c r="AY11" s="81"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
+      <c r="BD11" s="82"/>
+      <c r="BG11" s="66"/>
     </row>
     <row r="12" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="25" t="s">
@@ -2990,13 +2984,13 @@
       <c r="AV12" s="9"/>
       <c r="AW12" s="17"/>
       <c r="AX12" s="10"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="69"/>
-      <c r="BG12" s="84"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="84"/>
+      <c r="BD12" s="85"/>
+      <c r="BG12" s="66"/>
     </row>
     <row r="13" spans="1:59" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E13" s="27" t="s">
@@ -3027,7 +3021,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N13" s="80">
+      <c r="N13" s="61">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -3043,7 +3037,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="R13" s="80">
+      <c r="R13" s="61">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -3059,7 +3053,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="V13" s="80">
+      <c r="V13" s="61">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -3079,7 +3073,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AB13" s="70" t="s">
+      <c r="AB13" s="72" t="s">
         <v>65</v>
       </c>
       <c r="AC13" s="45" t="s">
@@ -3151,7 +3145,7 @@
       </c>
       <c r="AT13" s="18"/>
       <c r="AU13" s="18"/>
-      <c r="AV13" s="71" t="s">
+      <c r="AV13" s="73" t="s">
         <v>65</v>
       </c>
       <c r="AW13" s="50" t="s">
@@ -3161,16 +3155,16 @@
         <f>G3</f>
         <v>19212</v>
       </c>
-      <c r="AY13" s="61" t="str">
+      <c r="AY13" s="78" t="str">
         <f>IF(AM16=1,IF(AX15&gt;0,$BG$13,$BG$7),$BG$2)</f>
         <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="AZ13" s="62"/>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="62"/>
-      <c r="BD13" s="63"/>
-      <c r="BG13" s="85" t="s">
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="79"/>
+      <c r="BC13" s="79"/>
+      <c r="BD13" s="80"/>
+      <c r="BG13" s="67" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3226,7 +3220,7 @@
       <c r="Z14" s="56">
         <v>0</v>
       </c>
-      <c r="AB14" s="70"/>
+      <c r="AB14" s="72"/>
       <c r="AC14" s="45" t="s">
         <v>37</v>
       </c>
@@ -3294,7 +3288,7 @@
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="AV14" s="72"/>
+      <c r="AV14" s="74"/>
       <c r="AW14" s="13" t="s">
         <v>5</v>
       </c>
@@ -3302,23 +3296,23 @@
         <f>G8</f>
         <v>-205</v>
       </c>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="65"/>
-      <c r="BD14" s="66"/>
-      <c r="BG14" s="85"/>
+      <c r="AY14" s="81"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
+      <c r="BC14" s="69"/>
+      <c r="BD14" s="82"/>
+      <c r="BG14" s="67"/>
     </row>
     <row r="15" spans="1:59" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="41">
@@ -3400,21 +3394,21 @@
         <f>AX13+AX14</f>
         <v>19007</v>
       </c>
-      <c r="AY15" s="64"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="66"/>
-      <c r="BG15" s="85"/>
+      <c r="AY15" s="81"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+      <c r="BC15" s="69"/>
+      <c r="BD15" s="82"/>
+      <c r="BG15" s="67"/>
     </row>
     <row r="16" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="AB16" s="2"/>
       <c r="AD16" s="15" t="s">
         <v>66</v>
@@ -3460,21 +3454,21 @@
       </c>
       <c r="AW16" s="7"/>
       <c r="AX16" s="3"/>
-      <c r="AY16" s="64"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="66"/>
-      <c r="BG16" s="85"/>
+      <c r="AY16" s="81"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
+      <c r="BC16" s="69"/>
+      <c r="BD16" s="82"/>
+      <c r="BG16" s="67"/>
     </row>
     <row r="17" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="37"/>
@@ -3498,22 +3492,22 @@
       <c r="AV17" s="9"/>
       <c r="AW17" s="17"/>
       <c r="AX17" s="10"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="69"/>
-      <c r="BG17" s="85"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="84"/>
+      <c r="BA17" s="84"/>
+      <c r="BB17" s="84"/>
+      <c r="BC17" s="84"/>
+      <c r="BD17" s="85"/>
+      <c r="BG17" s="67"/>
     </row>
     <row r="18" spans="1:59" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="AB18" s="70" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="AB18" s="72" t="s">
         <v>65</v>
       </c>
       <c r="AC18" s="45" t="s">
@@ -3585,7 +3579,7 @@
       </c>
       <c r="AT18" s="18"/>
       <c r="AU18" s="18"/>
-      <c r="AV18" s="71" t="s">
+      <c r="AV18" s="73" t="s">
         <v>65</v>
       </c>
       <c r="AW18" s="50" t="s">
@@ -3595,25 +3589,25 @@
         <f>G8</f>
         <v>-205</v>
       </c>
-      <c r="AY18" s="61" t="str">
+      <c r="AY18" s="78" t="str">
         <f>IF(AM21=1,IF(AX20&gt;0,$BG$13,$BG$7),$BG$2)</f>
         <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="63"/>
-      <c r="BG18" s="86"/>
+      <c r="AZ18" s="79"/>
+      <c r="BA18" s="79"/>
+      <c r="BB18" s="79"/>
+      <c r="BC18" s="79"/>
+      <c r="BD18" s="80"/>
+      <c r="BG18" s="68"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="AB19" s="70"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="AB19" s="72"/>
       <c r="AC19" s="45" t="s">
         <v>38</v>
       </c>
@@ -3681,7 +3675,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="AV19" s="72"/>
+      <c r="AV19" s="74"/>
       <c r="AW19" s="13" t="s">
         <v>6</v>
       </c>
@@ -3689,21 +3683,21 @@
         <f>G9</f>
         <v>-19212</v>
       </c>
-      <c r="AY19" s="64"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="66"/>
-      <c r="BG19" s="82"/>
+      <c r="AY19" s="81"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="82"/>
+      <c r="BG19" s="63"/>
     </row>
     <row r="20" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="41">
@@ -3785,13 +3779,13 @@
         <f>AX18+AX19</f>
         <v>-19417</v>
       </c>
-      <c r="AY20" s="64"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="66"/>
-      <c r="BG20" s="82"/>
+      <c r="AY20" s="81"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
+      <c r="BC20" s="69"/>
+      <c r="BD20" s="82"/>
+      <c r="BG20" s="63"/>
     </row>
     <row r="21" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB21" s="2"/>
@@ -3839,12 +3833,12 @@
       </c>
       <c r="AW21" s="7"/>
       <c r="AX21" s="3"/>
-      <c r="AY21" s="64"/>
-      <c r="AZ21" s="65"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="66"/>
+      <c r="AY21" s="81"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="82"/>
     </row>
     <row r="22" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB22" s="8"/>
@@ -3870,15 +3864,15 @@
       <c r="AV22" s="9"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="10"/>
-      <c r="AY22" s="67"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="69"/>
+      <c r="AY22" s="83"/>
+      <c r="AZ22" s="84"/>
+      <c r="BA22" s="84"/>
+      <c r="BB22" s="84"/>
+      <c r="BC22" s="84"/>
+      <c r="BD22" s="85"/>
     </row>
     <row r="23" spans="1:59" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB23" s="70" t="s">
+      <c r="AB23" s="72" t="s">
         <v>65</v>
       </c>
       <c r="AC23" s="45" t="s">
@@ -3950,7 +3944,7 @@
       </c>
       <c r="AT23" s="18"/>
       <c r="AU23" s="18"/>
-      <c r="AV23" s="71" t="s">
+      <c r="AV23" s="73" t="s">
         <v>65</v>
       </c>
       <c r="AW23" s="50" t="s">
@@ -3960,18 +3954,18 @@
         <f>G9</f>
         <v>-19212</v>
       </c>
-      <c r="AY23" s="61" t="str">
+      <c r="AY23" s="78" t="str">
         <f>IF(AM26=1,IF(AX25&gt;0,$BG$13,$BG$7),$BG$2)</f>
         <v>При сложении двух слагаемых получено отрицательное число. Сумма оказалась вне ОДЗ, результат выполнения операции некорректный, разнится с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="AZ23" s="62"/>
-      <c r="BA23" s="62"/>
-      <c r="BB23" s="62"/>
-      <c r="BC23" s="62"/>
-      <c r="BD23" s="63"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="79"/>
+      <c r="BD23" s="80"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="AB24" s="70"/>
+      <c r="AB24" s="72"/>
       <c r="AC24" s="45" t="s">
         <v>39</v>
       </c>
@@ -4039,7 +4033,7 @@
         <f t="shared" si="81"/>
         <v>1</v>
       </c>
-      <c r="AV24" s="72"/>
+      <c r="AV24" s="74"/>
       <c r="AW24" s="13" t="s">
         <v>7</v>
       </c>
@@ -4047,12 +4041,12 @@
         <f>G10</f>
         <v>-19417</v>
       </c>
-      <c r="AY24" s="64"/>
-      <c r="AZ24" s="65"/>
-      <c r="BA24" s="65"/>
-      <c r="BB24" s="65"/>
-      <c r="BC24" s="65"/>
-      <c r="BD24" s="66"/>
+      <c r="AY24" s="81"/>
+      <c r="AZ24" s="69"/>
+      <c r="BA24" s="69"/>
+      <c r="BB24" s="69"/>
+      <c r="BC24" s="69"/>
+      <c r="BD24" s="82"/>
     </row>
     <row r="25" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB25" s="8"/>
@@ -4136,12 +4130,12 @@
         <f>AX23+AX24</f>
         <v>-38629</v>
       </c>
-      <c r="AY25" s="64"/>
-      <c r="AZ25" s="65"/>
-      <c r="BA25" s="65"/>
-      <c r="BB25" s="65"/>
-      <c r="BC25" s="65"/>
-      <c r="BD25" s="66"/>
+      <c r="AY25" s="81"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
+      <c r="BC25" s="69"/>
+      <c r="BD25" s="82"/>
     </row>
     <row r="26" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB26" s="2"/>
@@ -4189,12 +4183,12 @@
       </c>
       <c r="AW26" s="7"/>
       <c r="AX26" s="3"/>
-      <c r="AY26" s="64"/>
-      <c r="AZ26" s="65"/>
-      <c r="BA26" s="65"/>
-      <c r="BB26" s="65"/>
-      <c r="BC26" s="65"/>
-      <c r="BD26" s="66"/>
+      <c r="AY26" s="81"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="69"/>
+      <c r="BC26" s="69"/>
+      <c r="BD26" s="82"/>
     </row>
     <row r="27" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB27" s="8"/>
@@ -4220,15 +4214,15 @@
       <c r="AV27" s="9"/>
       <c r="AW27" s="17"/>
       <c r="AX27" s="10"/>
-      <c r="AY27" s="67"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="69"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="84"/>
+      <c r="BA27" s="84"/>
+      <c r="BB27" s="84"/>
+      <c r="BC27" s="84"/>
+      <c r="BD27" s="85"/>
     </row>
     <row r="28" spans="1:59" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB28" s="70" t="s">
+      <c r="AB28" s="72" t="s">
         <v>65</v>
       </c>
       <c r="AC28" s="45" t="s">
@@ -4300,7 +4294,7 @@
       </c>
       <c r="AT28" s="18"/>
       <c r="AU28" s="18"/>
-      <c r="AV28" s="71" t="s">
+      <c r="AV28" s="73" t="s">
         <v>65</v>
       </c>
       <c r="AW28" s="50" t="s">
@@ -4310,18 +4304,18 @@
         <f>G2</f>
         <v>205</v>
       </c>
-      <c r="AY28" s="61" t="str">
+      <c r="AY28" s="78" t="str">
         <f>IF(AM31=1,IF(AX30&gt;0,$BG$13,$BG$7),$BG$2)</f>
         <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="AZ28" s="62"/>
-      <c r="BA28" s="62"/>
-      <c r="BB28" s="62"/>
-      <c r="BC28" s="62"/>
-      <c r="BD28" s="63"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="79"/>
+      <c r="BD28" s="80"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="AB29" s="70"/>
+      <c r="AB29" s="72"/>
       <c r="AC29" s="45" t="s">
         <v>38</v>
       </c>
@@ -4389,7 +4383,7 @@
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="AV29" s="72"/>
+      <c r="AV29" s="74"/>
       <c r="AW29" s="13" t="s">
         <v>6</v>
       </c>
@@ -4397,12 +4391,12 @@
         <f>G9</f>
         <v>-19212</v>
       </c>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="65"/>
-      <c r="BA29" s="65"/>
-      <c r="BB29" s="65"/>
-      <c r="BC29" s="65"/>
-      <c r="BD29" s="66"/>
+      <c r="AY29" s="81"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
+      <c r="BB29" s="69"/>
+      <c r="BC29" s="69"/>
+      <c r="BD29" s="82"/>
     </row>
     <row r="30" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB30" s="8"/>
@@ -4486,12 +4480,12 @@
         <f>AX28+AX29</f>
         <v>-19007</v>
       </c>
-      <c r="AY30" s="64"/>
-      <c r="AZ30" s="65"/>
-      <c r="BA30" s="65"/>
-      <c r="BB30" s="65"/>
-      <c r="BC30" s="65"/>
-      <c r="BD30" s="66"/>
+      <c r="AY30" s="81"/>
+      <c r="AZ30" s="69"/>
+      <c r="BA30" s="69"/>
+      <c r="BB30" s="69"/>
+      <c r="BC30" s="69"/>
+      <c r="BD30" s="82"/>
     </row>
     <row r="31" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB31" s="2"/>
@@ -4539,12 +4533,12 @@
       </c>
       <c r="AW31" s="7"/>
       <c r="AX31" s="3"/>
-      <c r="AY31" s="64"/>
-      <c r="AZ31" s="65"/>
-      <c r="BA31" s="65"/>
-      <c r="BB31" s="65"/>
-      <c r="BC31" s="65"/>
-      <c r="BD31" s="66"/>
+      <c r="AY31" s="81"/>
+      <c r="AZ31" s="69"/>
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
+      <c r="BC31" s="69"/>
+      <c r="BD31" s="82"/>
     </row>
     <row r="32" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB32" s="8"/>
@@ -4570,15 +4564,15 @@
       <c r="AV32" s="9"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="10"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="69"/>
+      <c r="AY32" s="83"/>
+      <c r="AZ32" s="84"/>
+      <c r="BA32" s="84"/>
+      <c r="BB32" s="84"/>
+      <c r="BC32" s="84"/>
+      <c r="BD32" s="85"/>
     </row>
     <row r="33" spans="28:56" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB33" s="70" t="s">
+      <c r="AB33" s="72" t="s">
         <v>65</v>
       </c>
       <c r="AC33" s="45" t="s">
@@ -4650,7 +4644,7 @@
       </c>
       <c r="AT33" s="18"/>
       <c r="AU33" s="18"/>
-      <c r="AV33" s="71" t="s">
+      <c r="AV33" s="73" t="s">
         <v>65</v>
       </c>
       <c r="AW33" s="50" t="s">
@@ -4660,18 +4654,18 @@
         <f>G12</f>
         <v>-19007</v>
       </c>
-      <c r="AY33" s="61" t="str">
+      <c r="AY33" s="78" t="str">
         <f>IF(AM36=1,IF(AX35&gt;0,$BG$13,$BG$7),$BG$2)</f>
         <v>При сложении слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="AZ33" s="62"/>
-      <c r="BA33" s="62"/>
-      <c r="BB33" s="62"/>
-      <c r="BC33" s="62"/>
-      <c r="BD33" s="63"/>
+      <c r="AZ33" s="79"/>
+      <c r="BA33" s="79"/>
+      <c r="BB33" s="79"/>
+      <c r="BC33" s="79"/>
+      <c r="BD33" s="80"/>
     </row>
     <row r="34" spans="28:56" x14ac:dyDescent="0.2">
-      <c r="AB34" s="70"/>
+      <c r="AB34" s="72"/>
       <c r="AC34" s="45" t="s">
         <v>36</v>
       </c>
@@ -4739,7 +4733,7 @@
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
-      <c r="AV34" s="72"/>
+      <c r="AV34" s="74"/>
       <c r="AW34" s="13" t="s">
         <v>4</v>
       </c>
@@ -4747,12 +4741,12 @@
         <f>G4</f>
         <v>19417</v>
       </c>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="65"/>
-      <c r="BA34" s="65"/>
-      <c r="BB34" s="65"/>
-      <c r="BC34" s="65"/>
-      <c r="BD34" s="66"/>
+      <c r="AY34" s="81"/>
+      <c r="AZ34" s="69"/>
+      <c r="BA34" s="69"/>
+      <c r="BB34" s="69"/>
+      <c r="BC34" s="69"/>
+      <c r="BD34" s="82"/>
     </row>
     <row r="35" spans="28:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB35" s="8"/>
@@ -4836,12 +4830,12 @@
         <f>AX33+AX34</f>
         <v>410</v>
       </c>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="65"/>
-      <c r="BA35" s="65"/>
-      <c r="BB35" s="65"/>
-      <c r="BC35" s="65"/>
-      <c r="BD35" s="66"/>
+      <c r="AY35" s="81"/>
+      <c r="AZ35" s="69"/>
+      <c r="BA35" s="69"/>
+      <c r="BB35" s="69"/>
+      <c r="BC35" s="69"/>
+      <c r="BD35" s="82"/>
     </row>
     <row r="36" spans="28:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB36" s="2"/>
@@ -4889,12 +4883,12 @@
       </c>
       <c r="AW36" s="7"/>
       <c r="AX36" s="3"/>
-      <c r="AY36" s="64"/>
-      <c r="AZ36" s="65"/>
-      <c r="BA36" s="65"/>
-      <c r="BB36" s="65"/>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="66"/>
+      <c r="AY36" s="81"/>
+      <c r="AZ36" s="69"/>
+      <c r="BA36" s="69"/>
+      <c r="BB36" s="69"/>
+      <c r="BC36" s="69"/>
+      <c r="BD36" s="82"/>
     </row>
     <row r="37" spans="28:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB37" s="8"/>
@@ -4920,15 +4914,28 @@
       <c r="AV37" s="9"/>
       <c r="AW37" s="17"/>
       <c r="AX37" s="10"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="68"/>
-      <c r="BA37" s="68"/>
-      <c r="BB37" s="68"/>
-      <c r="BC37" s="68"/>
-      <c r="BD37" s="69"/>
+      <c r="AY37" s="83"/>
+      <c r="AZ37" s="84"/>
+      <c r="BA37" s="84"/>
+      <c r="BB37" s="84"/>
+      <c r="BC37" s="84"/>
+      <c r="BD37" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AY33:BD37"/>
+    <mergeCell ref="AY3:BD7"/>
+    <mergeCell ref="AY8:BD12"/>
+    <mergeCell ref="AY13:BD17"/>
+    <mergeCell ref="AY18:BD22"/>
+    <mergeCell ref="AY23:BD27"/>
+    <mergeCell ref="AY28:BD32"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AV23:AV24"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AV28:AV29"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AV33:AV34"/>
     <mergeCell ref="BG2:BG6"/>
     <mergeCell ref="BG7:BG12"/>
     <mergeCell ref="BG13:BG18"/>
@@ -4945,19 +4952,6 @@
     <mergeCell ref="AV13:AV14"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AV23:AV24"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AV28:AV29"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AV33:AV34"/>
-    <mergeCell ref="AY33:BD37"/>
-    <mergeCell ref="AY3:BD7"/>
-    <mergeCell ref="AY8:BD12"/>
-    <mergeCell ref="AY13:BD17"/>
-    <mergeCell ref="AY18:BD22"/>
-    <mergeCell ref="AY23:BD27"/>
-    <mergeCell ref="AY28:BD32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:Z5">
@@ -4969,66 +4963,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:Z13">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AX5">
-    <cfRule type="expression" dxfId="15" priority="31">
+    <cfRule type="expression" dxfId="13" priority="31">
       <formula>$AU5&lt;&gt;$AX5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="32">
+    <cfRule type="expression" dxfId="12" priority="32">
       <formula>$AU5=$AX5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU10:AX10">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$AU10&lt;&gt;$AX10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$AU10=$AX10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15:AX15">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$AU15&lt;&gt;$AX15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$AU15=$AX15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20:AX20">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$AU20&lt;&gt;$AX20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$AU20=$AX20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU25:AX25">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$AU25&lt;&gt;$AX25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$AU25=$AX25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU30:AX30">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$AU30&lt;&gt;$AX30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$AU30=$AX30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35:AX35">
-    <cfRule type="expression" dxfId="3" priority="17">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>$AU35&lt;&gt;$AX35</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>$AU35=$AX35</formula>
     </cfRule>
   </conditionalFormatting>
